--- a/shell/シェルスクリプト開発標準.xlsx
+++ b/shell/シェルスクリプト開発標準.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="420">
   <si>
     <t>else</t>
   </si>
@@ -2135,6 +2135,34 @@
       </rPr>
       <t>”</t>
     </r>
+  </si>
+  <si>
+    <t>サンプルプロジェクト</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>サンプルシステム</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(新規作成)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2526,7 +2554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2753,81 +2781,6 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2936,6 +2889,69 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2945,6 +2961,18 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2992,17 +3020,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3013,12 +3035,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3026,6 +3042,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,23 +3089,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3350,16 +3381,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -3367,17 +3388,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>サンプルプロジェクト</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8283,9 +8294,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="91" t="str">
+      <c r="I25" s="91">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v/>
+        <v>43336</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="91"/>
@@ -8848,55 +8859,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="198" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="117" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="92">
         <f>IF(D8="","",D8)</f>
-        <v/>
-      </c>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="119"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8904,51 +8917,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="198" t="s">
+        <v>414</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="117" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="92" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8956,43 +8971,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="119"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9029,1017 +9044,1187 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
+      <c r="A8" s="87">
+        <v>1</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="200" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="201" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="202" t="s">
+        <v>418</v>
+      </c>
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="147"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="201" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="146"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="100"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="136"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="100"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="100"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="138"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="136"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="100"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="138"/>
+      <c r="W14" s="138"/>
+      <c r="X14" s="138"/>
+      <c r="Y14" s="138"/>
+      <c r="Z14" s="138"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="136"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="100"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="138"/>
+      <c r="X15" s="138"/>
+      <c r="Y15" s="138"/>
+      <c r="Z15" s="138"/>
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="138"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="136"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="138"/>
+      <c r="Y16" s="138"/>
+      <c r="Z16" s="138"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="138"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="136"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="100"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="138"/>
+      <c r="W17" s="138"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="138"/>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="138"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="134"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="100"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="100"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="100"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="100"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="136"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="136"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="138"/>
+      <c r="X25" s="138"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="138"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="138"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138"/>
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="138"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="136"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="136"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="100"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="138"/>
+      <c r="Z30" s="138"/>
+      <c r="AA30" s="138"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="138"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="135"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="100"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
+      <c r="AB31" s="138"/>
+      <c r="AC31" s="138"/>
+      <c r="AD31" s="138"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="100"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="138"/>
+      <c r="W32" s="138"/>
+      <c r="X32" s="138"/>
+      <c r="Y32" s="138"/>
+      <c r="Z32" s="138"/>
+      <c r="AA32" s="138"/>
+      <c r="AB32" s="138"/>
+      <c r="AC32" s="138"/>
+      <c r="AD32" s="138"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="136"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="100"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="138"/>
+      <c r="X33" s="138"/>
+      <c r="Y33" s="138"/>
+      <c r="Z33" s="138"/>
+      <c r="AA33" s="138"/>
+      <c r="AB33" s="138"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="138"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="134"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10063,162 +10248,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10375,163 +10404,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="153" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="149">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="150"/>
+      <c r="AI1" s="151"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="153" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="151"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="149" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="150"/>
+      <c r="AI3" s="151"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12010,14 +12039,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12027,6 +12048,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12053,163 +12082,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12294,36 +12323,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="173" t="s">
+      <c r="E28" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="173" t="s">
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="175"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="157"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -12634,6 +12663,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -12641,18 +12682,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12683,163 +12712,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="164" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13504,33 +13533,33 @@
       <c r="F21" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="182" t="s">
+      <c r="G21" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182" t="s">
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -13547,33 +13576,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183" t="s">
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="176"/>
+      <c r="Y22" s="176"/>
+      <c r="Z22" s="176"/>
+      <c r="AA22" s="176"/>
+      <c r="AB22" s="176"/>
+      <c r="AC22" s="176"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -13590,33 +13619,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="183" t="s">
+      <c r="G23" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183" t="s">
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="176"/>
+      <c r="Y23" s="176"/>
+      <c r="Z23" s="176"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -13747,33 +13776,33 @@
       <c r="F27" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="180" t="s">
+      <c r="G27" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="180" t="s">
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="180"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="180"/>
-      <c r="Y27" s="180"/>
-      <c r="Z27" s="180"/>
-      <c r="AA27" s="180"/>
-      <c r="AB27" s="180"/>
-      <c r="AC27" s="180"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -13790,33 +13819,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179" t="s">
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -13833,33 +13862,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="179" t="s">
+      <c r="G29" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="179" t="s">
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="179"/>
-      <c r="U29" s="179"/>
-      <c r="V29" s="179"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="179"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="179"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -13876,33 +13905,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="179" t="s">
+      <c r="G30" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="179" t="s">
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="179"/>
-      <c r="U30" s="179"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
-      <c r="Z30" s="179"/>
-      <c r="AA30" s="179"/>
-      <c r="AB30" s="179"/>
-      <c r="AC30" s="179"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -13919,33 +13948,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="179"/>
-      <c r="Q31" s="179"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="179" t="s">
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="179"/>
-      <c r="U31" s="179"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="179"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="179"/>
-      <c r="Z31" s="179"/>
-      <c r="AA31" s="179"/>
-      <c r="AB31" s="179"/>
-      <c r="AC31" s="179"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -13962,33 +13991,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="179" t="s">
+      <c r="G32" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="179"/>
-      <c r="S32" s="179" t="s">
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="179"/>
-      <c r="U32" s="179"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="179"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="179"/>
-      <c r="AC32" s="179"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14005,33 +14034,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="179" t="s">
+      <c r="G33" s="177" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="179" t="s">
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="179"/>
-      <c r="U33" s="179"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="179"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="179"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14236,34 +14265,34 @@
       <c r="E39" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180" t="s">
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="178"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="180"/>
-      <c r="V39" s="180"/>
-      <c r="W39" s="180"/>
-      <c r="X39" s="180"/>
-      <c r="Y39" s="180"/>
-      <c r="Z39" s="180"/>
-      <c r="AA39" s="180"/>
-      <c r="AB39" s="180"/>
-      <c r="AC39" s="180"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
+      <c r="U39" s="178"/>
+      <c r="V39" s="178"/>
+      <c r="W39" s="178"/>
+      <c r="X39" s="178"/>
+      <c r="Y39" s="178"/>
+      <c r="Z39" s="178"/>
+      <c r="AA39" s="178"/>
+      <c r="AB39" s="178"/>
+      <c r="AC39" s="178"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14279,34 +14308,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="179" t="s">
+      <c r="F40" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="179"/>
-      <c r="L40" s="179"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="181" t="s">
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="181"/>
-      <c r="T40" s="181"/>
-      <c r="U40" s="181"/>
-      <c r="V40" s="181"/>
-      <c r="W40" s="181"/>
-      <c r="X40" s="181"/>
-      <c r="Y40" s="181"/>
-      <c r="Z40" s="181"/>
-      <c r="AA40" s="181"/>
-      <c r="AB40" s="181"/>
-      <c r="AC40" s="181"/>
+      <c r="S40" s="179"/>
+      <c r="T40" s="179"/>
+      <c r="U40" s="179"/>
+      <c r="V40" s="179"/>
+      <c r="W40" s="179"/>
+      <c r="X40" s="179"/>
+      <c r="Y40" s="179"/>
+      <c r="Z40" s="179"/>
+      <c r="AA40" s="179"/>
+      <c r="AB40" s="179"/>
+      <c r="AC40" s="179"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14322,34 +14351,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="179" t="s">
+      <c r="F41" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="181" t="s">
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="181"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="181"/>
-      <c r="Y41" s="181"/>
-      <c r="Z41" s="181"/>
-      <c r="AA41" s="181"/>
-      <c r="AB41" s="181"/>
-      <c r="AC41" s="181"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="U41" s="179"/>
+      <c r="V41" s="179"/>
+      <c r="W41" s="179"/>
+      <c r="X41" s="179"/>
+      <c r="Y41" s="179"/>
+      <c r="Z41" s="179"/>
+      <c r="AA41" s="179"/>
+      <c r="AB41" s="179"/>
+      <c r="AC41" s="179"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14365,34 +14394,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="179" t="s">
+      <c r="F42" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="181" t="s">
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="181"/>
-      <c r="V42" s="181"/>
-      <c r="W42" s="181"/>
-      <c r="X42" s="181"/>
-      <c r="Y42" s="181"/>
-      <c r="Z42" s="181"/>
-      <c r="AA42" s="181"/>
-      <c r="AB42" s="181"/>
-      <c r="AC42" s="181"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="179"/>
+      <c r="U42" s="179"/>
+      <c r="V42" s="179"/>
+      <c r="W42" s="179"/>
+      <c r="X42" s="179"/>
+      <c r="Y42" s="179"/>
+      <c r="Z42" s="179"/>
+      <c r="AA42" s="179"/>
+      <c r="AB42" s="179"/>
+      <c r="AC42" s="179"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14408,34 +14437,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="179" t="s">
+      <c r="F43" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="179"/>
-      <c r="N43" s="179"/>
-      <c r="O43" s="179"/>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="179"/>
-      <c r="R43" s="181" t="s">
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="181"/>
-      <c r="T43" s="181"/>
-      <c r="U43" s="181"/>
-      <c r="V43" s="181"/>
-      <c r="W43" s="181"/>
-      <c r="X43" s="181"/>
-      <c r="Y43" s="181"/>
-      <c r="Z43" s="181"/>
-      <c r="AA43" s="181"/>
-      <c r="AB43" s="181"/>
-      <c r="AC43" s="181"/>
+      <c r="S43" s="179"/>
+      <c r="T43" s="179"/>
+      <c r="U43" s="179"/>
+      <c r="V43" s="179"/>
+      <c r="W43" s="179"/>
+      <c r="X43" s="179"/>
+      <c r="Y43" s="179"/>
+      <c r="Z43" s="179"/>
+      <c r="AA43" s="179"/>
+      <c r="AB43" s="179"/>
+      <c r="AC43" s="179"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -14451,34 +14480,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="179" t="s">
+      <c r="F44" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="179"/>
-      <c r="M44" s="179"/>
-      <c r="N44" s="179"/>
-      <c r="O44" s="179"/>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="179"/>
-      <c r="R44" s="181" t="s">
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="179" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="181"/>
-      <c r="T44" s="181"/>
-      <c r="U44" s="181"/>
-      <c r="V44" s="181"/>
-      <c r="W44" s="181"/>
-      <c r="X44" s="181"/>
-      <c r="Y44" s="181"/>
-      <c r="Z44" s="181"/>
-      <c r="AA44" s="181"/>
-      <c r="AB44" s="181"/>
-      <c r="AC44" s="181"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="179"/>
+      <c r="AA44" s="179"/>
+      <c r="AB44" s="179"/>
+      <c r="AC44" s="179"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -14494,34 +14523,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="179" t="s">
+      <c r="F45" s="177" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="179"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="179"/>
-      <c r="N45" s="179"/>
-      <c r="O45" s="179"/>
-      <c r="P45" s="179"/>
-      <c r="Q45" s="179"/>
-      <c r="R45" s="181" t="s">
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
+      <c r="Q45" s="177"/>
+      <c r="R45" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="181"/>
-      <c r="T45" s="181"/>
-      <c r="U45" s="181"/>
-      <c r="V45" s="181"/>
-      <c r="W45" s="181"/>
-      <c r="X45" s="181"/>
-      <c r="Y45" s="181"/>
-      <c r="Z45" s="181"/>
-      <c r="AA45" s="181"/>
-      <c r="AB45" s="181"/>
-      <c r="AC45" s="181"/>
+      <c r="S45" s="179"/>
+      <c r="T45" s="179"/>
+      <c r="U45" s="179"/>
+      <c r="V45" s="179"/>
+      <c r="W45" s="179"/>
+      <c r="X45" s="179"/>
+      <c r="Y45" s="179"/>
+      <c r="Z45" s="179"/>
+      <c r="AA45" s="179"/>
+      <c r="AB45" s="179"/>
+      <c r="AC45" s="179"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -21618,19 +21647,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="G33:R33"/>
     <mergeCell ref="S27:AC27"/>
@@ -21645,30 +21685,19 @@
     <mergeCell ref="G29:R29"/>
     <mergeCell ref="G30:R30"/>
     <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -21706,163 +21735,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -23560,39 +23589,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="184" t="s">
+      <c r="F49" s="180" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="185"/>
-      <c r="M49" s="185"/>
-      <c r="N49" s="185"/>
-      <c r="O49" s="185"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="185"/>
-      <c r="R49" s="185"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="185"/>
-      <c r="U49" s="185"/>
-      <c r="V49" s="186"/>
-      <c r="W49" s="184" t="s">
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="181"/>
+      <c r="K49" s="181"/>
+      <c r="L49" s="181"/>
+      <c r="M49" s="181"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="181"/>
+      <c r="P49" s="181"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="181"/>
+      <c r="S49" s="181"/>
+      <c r="T49" s="181"/>
+      <c r="U49" s="181"/>
+      <c r="V49" s="182"/>
+      <c r="W49" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="185"/>
-      <c r="Y49" s="185"/>
-      <c r="Z49" s="185"/>
-      <c r="AA49" s="185"/>
-      <c r="AB49" s="185"/>
-      <c r="AC49" s="185"/>
-      <c r="AD49" s="185"/>
-      <c r="AE49" s="185"/>
-      <c r="AF49" s="185"/>
-      <c r="AG49" s="185"/>
-      <c r="AH49" s="186"/>
+      <c r="X49" s="181"/>
+      <c r="Y49" s="181"/>
+      <c r="Z49" s="181"/>
+      <c r="AA49" s="181"/>
+      <c r="AB49" s="181"/>
+      <c r="AC49" s="181"/>
+      <c r="AD49" s="181"/>
+      <c r="AE49" s="181"/>
+      <c r="AF49" s="181"/>
+      <c r="AG49" s="181"/>
+      <c r="AH49" s="182"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -24734,39 +24763,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="184" t="s">
+      <c r="F79" s="180" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="185"/>
-      <c r="H79" s="185"/>
-      <c r="I79" s="185"/>
-      <c r="J79" s="185"/>
-      <c r="K79" s="185"/>
-      <c r="L79" s="185"/>
-      <c r="M79" s="185"/>
-      <c r="N79" s="185"/>
-      <c r="O79" s="185"/>
-      <c r="P79" s="185"/>
-      <c r="Q79" s="185"/>
-      <c r="R79" s="185"/>
-      <c r="S79" s="185"/>
-      <c r="T79" s="185"/>
-      <c r="U79" s="185"/>
-      <c r="V79" s="186"/>
-      <c r="W79" s="184" t="s">
+      <c r="G79" s="181"/>
+      <c r="H79" s="181"/>
+      <c r="I79" s="181"/>
+      <c r="J79" s="181"/>
+      <c r="K79" s="181"/>
+      <c r="L79" s="181"/>
+      <c r="M79" s="181"/>
+      <c r="N79" s="181"/>
+      <c r="O79" s="181"/>
+      <c r="P79" s="181"/>
+      <c r="Q79" s="181"/>
+      <c r="R79" s="181"/>
+      <c r="S79" s="181"/>
+      <c r="T79" s="181"/>
+      <c r="U79" s="181"/>
+      <c r="V79" s="182"/>
+      <c r="W79" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X79" s="185"/>
-      <c r="Y79" s="185"/>
-      <c r="Z79" s="185"/>
-      <c r="AA79" s="185"/>
-      <c r="AB79" s="185"/>
-      <c r="AC79" s="185"/>
-      <c r="AD79" s="185"/>
-      <c r="AE79" s="185"/>
-      <c r="AF79" s="185"/>
-      <c r="AG79" s="185"/>
-      <c r="AH79" s="186"/>
+      <c r="X79" s="181"/>
+      <c r="Y79" s="181"/>
+      <c r="Z79" s="181"/>
+      <c r="AA79" s="181"/>
+      <c r="AB79" s="181"/>
+      <c r="AC79" s="181"/>
+      <c r="AD79" s="181"/>
+      <c r="AE79" s="181"/>
+      <c r="AF79" s="181"/>
+      <c r="AG79" s="181"/>
+      <c r="AH79" s="182"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -25861,39 +25890,39 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="184" t="s">
+      <c r="F108" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
-      <c r="S108" s="99"/>
-      <c r="T108" s="99"/>
-      <c r="U108" s="99"/>
-      <c r="V108" s="100"/>
-      <c r="W108" s="184" t="s">
+      <c r="G108" s="135"/>
+      <c r="H108" s="135"/>
+      <c r="I108" s="135"/>
+      <c r="J108" s="135"/>
+      <c r="K108" s="135"/>
+      <c r="L108" s="135"/>
+      <c r="M108" s="135"/>
+      <c r="N108" s="135"/>
+      <c r="O108" s="135"/>
+      <c r="P108" s="135"/>
+      <c r="Q108" s="135"/>
+      <c r="R108" s="135"/>
+      <c r="S108" s="135"/>
+      <c r="T108" s="135"/>
+      <c r="U108" s="135"/>
+      <c r="V108" s="136"/>
+      <c r="W108" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="99"/>
-      <c r="Y108" s="99"/>
-      <c r="Z108" s="99"/>
-      <c r="AA108" s="99"/>
-      <c r="AB108" s="99"/>
-      <c r="AC108" s="99"/>
-      <c r="AD108" s="99"/>
-      <c r="AE108" s="99"/>
-      <c r="AF108" s="99"/>
-      <c r="AG108" s="99"/>
-      <c r="AH108" s="100"/>
+      <c r="X108" s="135"/>
+      <c r="Y108" s="135"/>
+      <c r="Z108" s="135"/>
+      <c r="AA108" s="135"/>
+      <c r="AB108" s="135"/>
+      <c r="AC108" s="135"/>
+      <c r="AD108" s="135"/>
+      <c r="AE108" s="135"/>
+      <c r="AF108" s="135"/>
+      <c r="AG108" s="135"/>
+      <c r="AH108" s="136"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -26483,39 +26512,39 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="184" t="s">
+      <c r="F124" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
-      <c r="L124" s="99"/>
-      <c r="M124" s="99"/>
-      <c r="N124" s="99"/>
-      <c r="O124" s="99"/>
-      <c r="P124" s="99"/>
-      <c r="Q124" s="99"/>
-      <c r="R124" s="99"/>
-      <c r="S124" s="99"/>
-      <c r="T124" s="99"/>
-      <c r="U124" s="99"/>
-      <c r="V124" s="100"/>
-      <c r="W124" s="184" t="s">
+      <c r="G124" s="135"/>
+      <c r="H124" s="135"/>
+      <c r="I124" s="135"/>
+      <c r="J124" s="135"/>
+      <c r="K124" s="135"/>
+      <c r="L124" s="135"/>
+      <c r="M124" s="135"/>
+      <c r="N124" s="135"/>
+      <c r="O124" s="135"/>
+      <c r="P124" s="135"/>
+      <c r="Q124" s="135"/>
+      <c r="R124" s="135"/>
+      <c r="S124" s="135"/>
+      <c r="T124" s="135"/>
+      <c r="U124" s="135"/>
+      <c r="V124" s="136"/>
+      <c r="W124" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="99"/>
-      <c r="Y124" s="99"/>
-      <c r="Z124" s="99"/>
-      <c r="AA124" s="99"/>
-      <c r="AB124" s="99"/>
-      <c r="AC124" s="99"/>
-      <c r="AD124" s="99"/>
-      <c r="AE124" s="99"/>
-      <c r="AF124" s="99"/>
-      <c r="AG124" s="99"/>
-      <c r="AH124" s="100"/>
+      <c r="X124" s="135"/>
+      <c r="Y124" s="135"/>
+      <c r="Z124" s="135"/>
+      <c r="AA124" s="135"/>
+      <c r="AB124" s="135"/>
+      <c r="AC124" s="135"/>
+      <c r="AD124" s="135"/>
+      <c r="AE124" s="135"/>
+      <c r="AF124" s="135"/>
+      <c r="AG124" s="135"/>
+      <c r="AH124" s="136"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -28137,39 +28166,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="184" t="s">
+      <c r="F166" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="185"/>
-      <c r="H166" s="185"/>
-      <c r="I166" s="185"/>
-      <c r="J166" s="185"/>
-      <c r="K166" s="185"/>
-      <c r="L166" s="185"/>
-      <c r="M166" s="185"/>
-      <c r="N166" s="185"/>
-      <c r="O166" s="185"/>
-      <c r="P166" s="185"/>
-      <c r="Q166" s="185"/>
-      <c r="R166" s="185"/>
-      <c r="S166" s="185"/>
-      <c r="T166" s="185"/>
-      <c r="U166" s="185"/>
-      <c r="V166" s="186"/>
-      <c r="W166" s="184" t="s">
+      <c r="G166" s="181"/>
+      <c r="H166" s="181"/>
+      <c r="I166" s="181"/>
+      <c r="J166" s="181"/>
+      <c r="K166" s="181"/>
+      <c r="L166" s="181"/>
+      <c r="M166" s="181"/>
+      <c r="N166" s="181"/>
+      <c r="O166" s="181"/>
+      <c r="P166" s="181"/>
+      <c r="Q166" s="181"/>
+      <c r="R166" s="181"/>
+      <c r="S166" s="181"/>
+      <c r="T166" s="181"/>
+      <c r="U166" s="181"/>
+      <c r="V166" s="182"/>
+      <c r="W166" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X166" s="185"/>
-      <c r="Y166" s="185"/>
-      <c r="Z166" s="185"/>
-      <c r="AA166" s="185"/>
-      <c r="AB166" s="185"/>
-      <c r="AC166" s="185"/>
-      <c r="AD166" s="185"/>
-      <c r="AE166" s="185"/>
-      <c r="AF166" s="185"/>
-      <c r="AG166" s="185"/>
-      <c r="AH166" s="186"/>
+      <c r="X166" s="181"/>
+      <c r="Y166" s="181"/>
+      <c r="Z166" s="181"/>
+      <c r="AA166" s="181"/>
+      <c r="AB166" s="181"/>
+      <c r="AC166" s="181"/>
+      <c r="AD166" s="181"/>
+      <c r="AE166" s="181"/>
+      <c r="AF166" s="181"/>
+      <c r="AG166" s="181"/>
+      <c r="AH166" s="182"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -29391,39 +29420,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="184" t="s">
+      <c r="F198" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G198" s="185"/>
-      <c r="H198" s="185"/>
-      <c r="I198" s="185"/>
-      <c r="J198" s="185"/>
-      <c r="K198" s="185"/>
-      <c r="L198" s="185"/>
-      <c r="M198" s="185"/>
-      <c r="N198" s="185"/>
-      <c r="O198" s="185"/>
-      <c r="P198" s="185"/>
-      <c r="Q198" s="185"/>
-      <c r="R198" s="185"/>
-      <c r="S198" s="185"/>
-      <c r="T198" s="185"/>
-      <c r="U198" s="185"/>
-      <c r="V198" s="186"/>
-      <c r="W198" s="184" t="s">
+      <c r="G198" s="181"/>
+      <c r="H198" s="181"/>
+      <c r="I198" s="181"/>
+      <c r="J198" s="181"/>
+      <c r="K198" s="181"/>
+      <c r="L198" s="181"/>
+      <c r="M198" s="181"/>
+      <c r="N198" s="181"/>
+      <c r="O198" s="181"/>
+      <c r="P198" s="181"/>
+      <c r="Q198" s="181"/>
+      <c r="R198" s="181"/>
+      <c r="S198" s="181"/>
+      <c r="T198" s="181"/>
+      <c r="U198" s="181"/>
+      <c r="V198" s="182"/>
+      <c r="W198" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X198" s="185"/>
-      <c r="Y198" s="185"/>
-      <c r="Z198" s="185"/>
-      <c r="AA198" s="185"/>
-      <c r="AB198" s="185"/>
-      <c r="AC198" s="185"/>
-      <c r="AD198" s="185"/>
-      <c r="AE198" s="185"/>
-      <c r="AF198" s="185"/>
-      <c r="AG198" s="185"/>
-      <c r="AH198" s="186"/>
+      <c r="X198" s="181"/>
+      <c r="Y198" s="181"/>
+      <c r="Z198" s="181"/>
+      <c r="AA198" s="181"/>
+      <c r="AB198" s="181"/>
+      <c r="AC198" s="181"/>
+      <c r="AD198" s="181"/>
+      <c r="AE198" s="181"/>
+      <c r="AF198" s="181"/>
+      <c r="AG198" s="181"/>
+      <c r="AH198" s="182"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -30906,39 +30935,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="184" t="s">
+      <c r="F237" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="185"/>
-      <c r="H237" s="185"/>
-      <c r="I237" s="185"/>
-      <c r="J237" s="185"/>
-      <c r="K237" s="185"/>
-      <c r="L237" s="185"/>
-      <c r="M237" s="185"/>
-      <c r="N237" s="185"/>
-      <c r="O237" s="185"/>
-      <c r="P237" s="185"/>
-      <c r="Q237" s="185"/>
-      <c r="R237" s="185"/>
-      <c r="S237" s="185"/>
-      <c r="T237" s="185"/>
-      <c r="U237" s="185"/>
-      <c r="V237" s="186"/>
-      <c r="W237" s="184" t="s">
+      <c r="G237" s="181"/>
+      <c r="H237" s="181"/>
+      <c r="I237" s="181"/>
+      <c r="J237" s="181"/>
+      <c r="K237" s="181"/>
+      <c r="L237" s="181"/>
+      <c r="M237" s="181"/>
+      <c r="N237" s="181"/>
+      <c r="O237" s="181"/>
+      <c r="P237" s="181"/>
+      <c r="Q237" s="181"/>
+      <c r="R237" s="181"/>
+      <c r="S237" s="181"/>
+      <c r="T237" s="181"/>
+      <c r="U237" s="181"/>
+      <c r="V237" s="182"/>
+      <c r="W237" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X237" s="185"/>
-      <c r="Y237" s="185"/>
-      <c r="Z237" s="185"/>
-      <c r="AA237" s="185"/>
-      <c r="AB237" s="185"/>
-      <c r="AC237" s="185"/>
-      <c r="AD237" s="185"/>
-      <c r="AE237" s="185"/>
-      <c r="AF237" s="185"/>
-      <c r="AG237" s="185"/>
-      <c r="AH237" s="186"/>
+      <c r="X237" s="181"/>
+      <c r="Y237" s="181"/>
+      <c r="Z237" s="181"/>
+      <c r="AA237" s="181"/>
+      <c r="AB237" s="181"/>
+      <c r="AC237" s="181"/>
+      <c r="AD237" s="181"/>
+      <c r="AE237" s="181"/>
+      <c r="AF237" s="181"/>
+      <c r="AG237" s="181"/>
+      <c r="AH237" s="182"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -31760,39 +31789,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="184" t="s">
+      <c r="F259" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="G259" s="185"/>
-      <c r="H259" s="185"/>
-      <c r="I259" s="185"/>
-      <c r="J259" s="185"/>
-      <c r="K259" s="185"/>
-      <c r="L259" s="185"/>
-      <c r="M259" s="185"/>
-      <c r="N259" s="185"/>
-      <c r="O259" s="185"/>
-      <c r="P259" s="185"/>
-      <c r="Q259" s="185"/>
-      <c r="R259" s="185"/>
-      <c r="S259" s="185"/>
-      <c r="T259" s="185"/>
-      <c r="U259" s="185"/>
-      <c r="V259" s="186"/>
-      <c r="W259" s="184" t="s">
+      <c r="G259" s="181"/>
+      <c r="H259" s="181"/>
+      <c r="I259" s="181"/>
+      <c r="J259" s="181"/>
+      <c r="K259" s="181"/>
+      <c r="L259" s="181"/>
+      <c r="M259" s="181"/>
+      <c r="N259" s="181"/>
+      <c r="O259" s="181"/>
+      <c r="P259" s="181"/>
+      <c r="Q259" s="181"/>
+      <c r="R259" s="181"/>
+      <c r="S259" s="181"/>
+      <c r="T259" s="181"/>
+      <c r="U259" s="181"/>
+      <c r="V259" s="182"/>
+      <c r="W259" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X259" s="185"/>
-      <c r="Y259" s="185"/>
-      <c r="Z259" s="185"/>
-      <c r="AA259" s="185"/>
-      <c r="AB259" s="185"/>
-      <c r="AC259" s="185"/>
-      <c r="AD259" s="185"/>
-      <c r="AE259" s="185"/>
-      <c r="AF259" s="185"/>
-      <c r="AG259" s="185"/>
-      <c r="AH259" s="186"/>
+      <c r="X259" s="181"/>
+      <c r="Y259" s="181"/>
+      <c r="Z259" s="181"/>
+      <c r="AA259" s="181"/>
+      <c r="AB259" s="181"/>
+      <c r="AC259" s="181"/>
+      <c r="AD259" s="181"/>
+      <c r="AE259" s="181"/>
+      <c r="AF259" s="181"/>
+      <c r="AG259" s="181"/>
+      <c r="AH259" s="182"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -32300,39 +32329,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="184" t="s">
+      <c r="F273" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="G273" s="185"/>
-      <c r="H273" s="185"/>
-      <c r="I273" s="185"/>
-      <c r="J273" s="185"/>
-      <c r="K273" s="185"/>
-      <c r="L273" s="185"/>
-      <c r="M273" s="185"/>
-      <c r="N273" s="185"/>
-      <c r="O273" s="185"/>
-      <c r="P273" s="185"/>
-      <c r="Q273" s="185"/>
-      <c r="R273" s="185"/>
-      <c r="S273" s="185"/>
-      <c r="T273" s="185"/>
-      <c r="U273" s="185"/>
-      <c r="V273" s="186"/>
-      <c r="W273" s="184" t="s">
+      <c r="G273" s="181"/>
+      <c r="H273" s="181"/>
+      <c r="I273" s="181"/>
+      <c r="J273" s="181"/>
+      <c r="K273" s="181"/>
+      <c r="L273" s="181"/>
+      <c r="M273" s="181"/>
+      <c r="N273" s="181"/>
+      <c r="O273" s="181"/>
+      <c r="P273" s="181"/>
+      <c r="Q273" s="181"/>
+      <c r="R273" s="181"/>
+      <c r="S273" s="181"/>
+      <c r="T273" s="181"/>
+      <c r="U273" s="181"/>
+      <c r="V273" s="182"/>
+      <c r="W273" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X273" s="185"/>
-      <c r="Y273" s="185"/>
-      <c r="Z273" s="185"/>
-      <c r="AA273" s="185"/>
-      <c r="AB273" s="185"/>
-      <c r="AC273" s="185"/>
-      <c r="AD273" s="185"/>
-      <c r="AE273" s="185"/>
-      <c r="AF273" s="185"/>
-      <c r="AG273" s="185"/>
-      <c r="AH273" s="186"/>
+      <c r="X273" s="181"/>
+      <c r="Y273" s="181"/>
+      <c r="Z273" s="181"/>
+      <c r="AA273" s="181"/>
+      <c r="AB273" s="181"/>
+      <c r="AC273" s="181"/>
+      <c r="AD273" s="181"/>
+      <c r="AE273" s="181"/>
+      <c r="AF273" s="181"/>
+      <c r="AG273" s="181"/>
+      <c r="AH273" s="182"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -33162,39 +33191,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="184" t="s">
+      <c r="F295" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="G295" s="185"/>
-      <c r="H295" s="185"/>
-      <c r="I295" s="185"/>
-      <c r="J295" s="185"/>
-      <c r="K295" s="185"/>
-      <c r="L295" s="185"/>
-      <c r="M295" s="185"/>
-      <c r="N295" s="185"/>
-      <c r="O295" s="185"/>
-      <c r="P295" s="185"/>
-      <c r="Q295" s="185"/>
-      <c r="R295" s="185"/>
-      <c r="S295" s="185"/>
-      <c r="T295" s="185"/>
-      <c r="U295" s="185"/>
-      <c r="V295" s="186"/>
-      <c r="W295" s="184" t="s">
+      <c r="G295" s="181"/>
+      <c r="H295" s="181"/>
+      <c r="I295" s="181"/>
+      <c r="J295" s="181"/>
+      <c r="K295" s="181"/>
+      <c r="L295" s="181"/>
+      <c r="M295" s="181"/>
+      <c r="N295" s="181"/>
+      <c r="O295" s="181"/>
+      <c r="P295" s="181"/>
+      <c r="Q295" s="181"/>
+      <c r="R295" s="181"/>
+      <c r="S295" s="181"/>
+      <c r="T295" s="181"/>
+      <c r="U295" s="181"/>
+      <c r="V295" s="182"/>
+      <c r="W295" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X295" s="185"/>
-      <c r="Y295" s="185"/>
-      <c r="Z295" s="185"/>
-      <c r="AA295" s="185"/>
-      <c r="AB295" s="185"/>
-      <c r="AC295" s="185"/>
-      <c r="AD295" s="185"/>
-      <c r="AE295" s="185"/>
-      <c r="AF295" s="185"/>
-      <c r="AG295" s="185"/>
-      <c r="AH295" s="186"/>
+      <c r="X295" s="181"/>
+      <c r="Y295" s="181"/>
+      <c r="Z295" s="181"/>
+      <c r="AA295" s="181"/>
+      <c r="AB295" s="181"/>
+      <c r="AC295" s="181"/>
+      <c r="AD295" s="181"/>
+      <c r="AE295" s="181"/>
+      <c r="AF295" s="181"/>
+      <c r="AG295" s="181"/>
+      <c r="AH295" s="182"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -34788,39 +34817,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="184" t="s">
+      <c r="F337" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="G337" s="185"/>
-      <c r="H337" s="185"/>
-      <c r="I337" s="185"/>
-      <c r="J337" s="185"/>
-      <c r="K337" s="185"/>
-      <c r="L337" s="185"/>
-      <c r="M337" s="185"/>
-      <c r="N337" s="185"/>
-      <c r="O337" s="185"/>
-      <c r="P337" s="185"/>
-      <c r="Q337" s="185"/>
-      <c r="R337" s="185"/>
-      <c r="S337" s="185"/>
-      <c r="T337" s="185"/>
-      <c r="U337" s="185"/>
-      <c r="V337" s="186"/>
-      <c r="W337" s="184" t="s">
+      <c r="G337" s="181"/>
+      <c r="H337" s="181"/>
+      <c r="I337" s="181"/>
+      <c r="J337" s="181"/>
+      <c r="K337" s="181"/>
+      <c r="L337" s="181"/>
+      <c r="M337" s="181"/>
+      <c r="N337" s="181"/>
+      <c r="O337" s="181"/>
+      <c r="P337" s="181"/>
+      <c r="Q337" s="181"/>
+      <c r="R337" s="181"/>
+      <c r="S337" s="181"/>
+      <c r="T337" s="181"/>
+      <c r="U337" s="181"/>
+      <c r="V337" s="182"/>
+      <c r="W337" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="X337" s="185"/>
-      <c r="Y337" s="185"/>
-      <c r="Z337" s="185"/>
-      <c r="AA337" s="185"/>
-      <c r="AB337" s="185"/>
-      <c r="AC337" s="185"/>
-      <c r="AD337" s="185"/>
-      <c r="AE337" s="185"/>
-      <c r="AF337" s="185"/>
-      <c r="AG337" s="185"/>
-      <c r="AH337" s="186"/>
+      <c r="X337" s="181"/>
+      <c r="Y337" s="181"/>
+      <c r="Z337" s="181"/>
+      <c r="AA337" s="181"/>
+      <c r="AB337" s="181"/>
+      <c r="AC337" s="181"/>
+      <c r="AD337" s="181"/>
+      <c r="AE337" s="181"/>
+      <c r="AF337" s="181"/>
+      <c r="AG337" s="181"/>
+      <c r="AH337" s="182"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35240,20 +35269,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35270,15 +35294,20 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35316,163 +35345,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="164" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="187" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
-      </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="159" t="s">
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="101" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -35814,40 +35843,40 @@
       <c r="D10" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="184" t="s">
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="185"/>
-      <c r="AG10" s="185"/>
-      <c r="AH10" s="186"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="181"/>
+      <c r="AB10" s="181"/>
+      <c r="AC10" s="181"/>
+      <c r="AD10" s="181"/>
+      <c r="AE10" s="181"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="182"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -35874,38 +35903,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="100"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="188"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="136"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -35933,39 +35962,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="196" t="s">
+      <c r="F12" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="196" t="s">
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="198"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
+      <c r="AD12" s="184"/>
+      <c r="AE12" s="184"/>
+      <c r="AF12" s="184"/>
+      <c r="AG12" s="184"/>
+      <c r="AH12" s="185"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -35993,39 +36022,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="196" t="s">
+      <c r="F13" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="196" t="s">
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="198"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+      <c r="Y13" s="184"/>
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="184"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
+      <c r="AD13" s="184"/>
+      <c r="AE13" s="184"/>
+      <c r="AF13" s="184"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="185"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36053,39 +36082,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="196" t="s">
+      <c r="F14" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="196" t="s">
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="198"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+      <c r="Y14" s="184"/>
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="184"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
+      <c r="AD14" s="184"/>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="184"/>
+      <c r="AG14" s="184"/>
+      <c r="AH14" s="185"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36112,40 +36141,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="196" t="s">
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="198"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+      <c r="Y15" s="184"/>
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="184"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="184"/>
+      <c r="AG15" s="184"/>
+      <c r="AH15" s="185"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -38505,15 +38534,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -38526,14 +38554,15 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/shell/シェルスクリプト開発標準.xlsx
+++ b/shell/シェルスクリプト開発標準.xlsx
@@ -2781,6 +2781,81 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2808,7 +2883,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2889,68 +2964,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2961,18 +2976,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3020,11 +3023,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3035,6 +3044,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3042,24 +3057,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3089,20 +3086,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5351,38 +5351,6 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15529" name="AutoShape 169"/>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4974798" y="29191223"/>
-            <a:ext cx="239957" cy="557875"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 23264"/>
-              <a:gd name="adj2" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="15528" name="Text Box 168"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
@@ -5524,7 +5492,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5214754" y="29465998"/>
+            <a:off x="5214754" y="29370748"/>
             <a:ext cx="479913" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5553,7 +5521,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5694668" y="29366080"/>
+            <a:off x="5694668" y="29270830"/>
             <a:ext cx="2039632" cy="166530"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5608,6 +5576,38 @@
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15529" name="AutoShape 169"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4955179" y="29095973"/>
+            <a:ext cx="239957" cy="557875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 23264"/>
+              <a:gd name="adj2" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -8859,57 +8859,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="198" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="92">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="117">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="94"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8917,53 +8917,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="198" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
         <v>414</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="92" t="str">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="117" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="94"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8971,43 +8971,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="94"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9044,1187 +9044,1031 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="95" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="95" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="95" t="s">
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="96"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="121"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="104" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43336</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="200" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="201" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="111" t="s">
         <v>417</v>
       </c>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="202" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="201" t="s">
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="111" t="s">
         <v>419</v>
       </c>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="146"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="136"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="100"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="136"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="100"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="136"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="100"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="136"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="100"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="134"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="136"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="100"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="136"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="100"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="136"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="100"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="134"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="136"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="100"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="138"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="134"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="136"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="138"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="134"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="136"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="100"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="136"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="136"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="100"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="134"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="136"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="100"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="136"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="100"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="134"/>
-      <c r="AG23" s="135"/>
-      <c r="AH23" s="135"/>
-      <c r="AI23" s="136"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="136"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="134"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="136"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="136"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="134"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="136"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="100"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="135"/>
-      <c r="AH27" s="135"/>
-      <c r="AI27" s="136"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="136"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="100"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="134"/>
-      <c r="AG29" s="135"/>
-      <c r="AH29" s="135"/>
-      <c r="AI29" s="136"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="100"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="135"/>
-      <c r="AH30" s="135"/>
-      <c r="AI30" s="136"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="100"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="135"/>
-      <c r="AH31" s="135"/>
-      <c r="AI31" s="136"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="135"/>
-      <c r="AH32" s="135"/>
-      <c r="AI32" s="136"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="135"/>
-      <c r="AH33" s="135"/>
-      <c r="AI33" s="136"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10248,6 +10092,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10404,163 +10404,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="149">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="151"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="149" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="151"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="149" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="151"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12039,6 +12039,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12048,14 +12056,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12082,163 +12082,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="101" t="str">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="101" t="str">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="152" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="101" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12323,36 +12323,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="155" t="s">
+      <c r="E28" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="155" t="s">
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="157"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="176"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -12663,6 +12663,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -12670,18 +12682,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12712,163 +12712,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="101" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="101" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="152" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="101" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13533,33 +13533,33 @@
       <c r="F21" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="175" t="s">
+      <c r="G21" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175" t="s">
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="175"/>
-      <c r="Y21" s="175"/>
-      <c r="Z21" s="175"/>
-      <c r="AA21" s="175"/>
-      <c r="AB21" s="175"/>
-      <c r="AC21" s="175"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -13576,33 +13576,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="176" t="s">
+      <c r="G22" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="176" t="s">
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="176"/>
-      <c r="U22" s="176"/>
-      <c r="V22" s="176"/>
-      <c r="W22" s="176"/>
-      <c r="X22" s="176"/>
-      <c r="Y22" s="176"/>
-      <c r="Z22" s="176"/>
-      <c r="AA22" s="176"/>
-      <c r="AB22" s="176"/>
-      <c r="AC22" s="176"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -13619,33 +13619,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="176" t="s">
+      <c r="G23" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176" t="s">
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="176"/>
-      <c r="Y23" s="176"/>
-      <c r="Z23" s="176"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="176"/>
-      <c r="AC23" s="176"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -13776,33 +13776,33 @@
       <c r="F27" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="178" t="s">
+      <c r="G27" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178" t="s">
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="178"/>
-      <c r="AB27" s="178"/>
-      <c r="AC27" s="178"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -13819,33 +13819,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="177" t="s">
+      <c r="G28" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="177"/>
-      <c r="S28" s="177" t="s">
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="177"/>
-      <c r="U28" s="177"/>
-      <c r="V28" s="177"/>
-      <c r="W28" s="177"/>
-      <c r="X28" s="177"/>
-      <c r="Y28" s="177"/>
-      <c r="Z28" s="177"/>
-      <c r="AA28" s="177"/>
-      <c r="AB28" s="177"/>
-      <c r="AC28" s="177"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="180"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="180"/>
+      <c r="X28" s="180"/>
+      <c r="Y28" s="180"/>
+      <c r="Z28" s="180"/>
+      <c r="AA28" s="180"/>
+      <c r="AB28" s="180"/>
+      <c r="AC28" s="180"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -13862,33 +13862,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="177" t="s">
+      <c r="G29" s="180" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177" t="s">
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="177"/>
-      <c r="W29" s="177"/>
-      <c r="X29" s="177"/>
-      <c r="Y29" s="177"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="177"/>
-      <c r="AC29" s="177"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="180"/>
+      <c r="AA29" s="180"/>
+      <c r="AB29" s="180"/>
+      <c r="AC29" s="180"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -13905,33 +13905,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="177" t="s">
+      <c r="G30" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="177"/>
-      <c r="S30" s="177" t="s">
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="180"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="180"/>
+      <c r="S30" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="177"/>
-      <c r="U30" s="177"/>
-      <c r="V30" s="177"/>
-      <c r="W30" s="177"/>
-      <c r="X30" s="177"/>
-      <c r="Y30" s="177"/>
-      <c r="Z30" s="177"/>
-      <c r="AA30" s="177"/>
-      <c r="AB30" s="177"/>
-      <c r="AC30" s="177"/>
+      <c r="T30" s="180"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="180"/>
+      <c r="W30" s="180"/>
+      <c r="X30" s="180"/>
+      <c r="Y30" s="180"/>
+      <c r="Z30" s="180"/>
+      <c r="AA30" s="180"/>
+      <c r="AB30" s="180"/>
+      <c r="AC30" s="180"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -13948,33 +13948,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="177" t="s">
+      <c r="G31" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="177" t="s">
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="177"/>
-      <c r="U31" s="177"/>
-      <c r="V31" s="177"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="177"/>
-      <c r="Z31" s="177"/>
-      <c r="AA31" s="177"/>
-      <c r="AB31" s="177"/>
-      <c r="AC31" s="177"/>
+      <c r="T31" s="180"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="180"/>
+      <c r="W31" s="180"/>
+      <c r="X31" s="180"/>
+      <c r="Y31" s="180"/>
+      <c r="Z31" s="180"/>
+      <c r="AA31" s="180"/>
+      <c r="AB31" s="180"/>
+      <c r="AC31" s="180"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -13991,33 +13991,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="177" t="s">
+      <c r="G32" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177" t="s">
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="180"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
+      <c r="T32" s="180"/>
+      <c r="U32" s="180"/>
+      <c r="V32" s="180"/>
+      <c r="W32" s="180"/>
+      <c r="X32" s="180"/>
+      <c r="Y32" s="180"/>
+      <c r="Z32" s="180"/>
+      <c r="AA32" s="180"/>
+      <c r="AB32" s="180"/>
+      <c r="AC32" s="180"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14034,33 +14034,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="177" t="s">
+      <c r="G33" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177" t="s">
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="177"/>
-      <c r="Z33" s="177"/>
-      <c r="AA33" s="177"/>
-      <c r="AB33" s="177"/>
-      <c r="AC33" s="177"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="180"/>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="180"/>
+      <c r="AA33" s="180"/>
+      <c r="AB33" s="180"/>
+      <c r="AC33" s="180"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14265,34 +14265,34 @@
       <c r="E39" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="178" t="s">
+      <c r="F39" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="178"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178" t="s">
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="178"/>
-      <c r="T39" s="178"/>
-      <c r="U39" s="178"/>
-      <c r="V39" s="178"/>
-      <c r="W39" s="178"/>
-      <c r="X39" s="178"/>
-      <c r="Y39" s="178"/>
-      <c r="Z39" s="178"/>
-      <c r="AA39" s="178"/>
-      <c r="AB39" s="178"/>
-      <c r="AC39" s="178"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="181"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="181"/>
+      <c r="AB39" s="181"/>
+      <c r="AC39" s="181"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14308,34 +14308,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="177"/>
-      <c r="M40" s="177"/>
-      <c r="N40" s="177"/>
-      <c r="O40" s="177"/>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="179" t="s">
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="182" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="179"/>
-      <c r="T40" s="179"/>
-      <c r="U40" s="179"/>
-      <c r="V40" s="179"/>
-      <c r="W40" s="179"/>
-      <c r="X40" s="179"/>
-      <c r="Y40" s="179"/>
-      <c r="Z40" s="179"/>
-      <c r="AA40" s="179"/>
-      <c r="AB40" s="179"/>
-      <c r="AC40" s="179"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="182"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="182"/>
+      <c r="X40" s="182"/>
+      <c r="Y40" s="182"/>
+      <c r="Z40" s="182"/>
+      <c r="AA40" s="182"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14351,34 +14351,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="177" t="s">
+      <c r="F41" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
-      <c r="M41" s="177"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="179" t="s">
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="179"/>
-      <c r="T41" s="179"/>
-      <c r="U41" s="179"/>
-      <c r="V41" s="179"/>
-      <c r="W41" s="179"/>
-      <c r="X41" s="179"/>
-      <c r="Y41" s="179"/>
-      <c r="Z41" s="179"/>
-      <c r="AA41" s="179"/>
-      <c r="AB41" s="179"/>
-      <c r="AC41" s="179"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="182"/>
+      <c r="Y41" s="182"/>
+      <c r="Z41" s="182"/>
+      <c r="AA41" s="182"/>
+      <c r="AB41" s="182"/>
+      <c r="AC41" s="182"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14394,34 +14394,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="177" t="s">
+      <c r="F42" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
-      <c r="O42" s="177"/>
-      <c r="P42" s="177"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="179" t="s">
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="179"/>
-      <c r="T42" s="179"/>
-      <c r="U42" s="179"/>
-      <c r="V42" s="179"/>
-      <c r="W42" s="179"/>
-      <c r="X42" s="179"/>
-      <c r="Y42" s="179"/>
-      <c r="Z42" s="179"/>
-      <c r="AA42" s="179"/>
-      <c r="AB42" s="179"/>
-      <c r="AC42" s="179"/>
+      <c r="S42" s="182"/>
+      <c r="T42" s="182"/>
+      <c r="U42" s="182"/>
+      <c r="V42" s="182"/>
+      <c r="W42" s="182"/>
+      <c r="X42" s="182"/>
+      <c r="Y42" s="182"/>
+      <c r="Z42" s="182"/>
+      <c r="AA42" s="182"/>
+      <c r="AB42" s="182"/>
+      <c r="AC42" s="182"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14437,34 +14437,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="177" t="s">
+      <c r="F43" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="177"/>
-      <c r="P43" s="177"/>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="179" t="s">
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="179"/>
-      <c r="T43" s="179"/>
-      <c r="U43" s="179"/>
-      <c r="V43" s="179"/>
-      <c r="W43" s="179"/>
-      <c r="X43" s="179"/>
-      <c r="Y43" s="179"/>
-      <c r="Z43" s="179"/>
-      <c r="AA43" s="179"/>
-      <c r="AB43" s="179"/>
-      <c r="AC43" s="179"/>
+      <c r="S43" s="182"/>
+      <c r="T43" s="182"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="182"/>
+      <c r="X43" s="182"/>
+      <c r="Y43" s="182"/>
+      <c r="Z43" s="182"/>
+      <c r="AA43" s="182"/>
+      <c r="AB43" s="182"/>
+      <c r="AC43" s="182"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -14480,34 +14480,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="177" t="s">
+      <c r="F44" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="177"/>
-      <c r="O44" s="177"/>
-      <c r="P44" s="177"/>
-      <c r="Q44" s="177"/>
-      <c r="R44" s="179" t="s">
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="180"/>
+      <c r="R44" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="179"/>
-      <c r="T44" s="179"/>
-      <c r="U44" s="179"/>
-      <c r="V44" s="179"/>
-      <c r="W44" s="179"/>
-      <c r="X44" s="179"/>
-      <c r="Y44" s="179"/>
-      <c r="Z44" s="179"/>
-      <c r="AA44" s="179"/>
-      <c r="AB44" s="179"/>
-      <c r="AC44" s="179"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="182"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="182"/>
+      <c r="W44" s="182"/>
+      <c r="X44" s="182"/>
+      <c r="Y44" s="182"/>
+      <c r="Z44" s="182"/>
+      <c r="AA44" s="182"/>
+      <c r="AB44" s="182"/>
+      <c r="AC44" s="182"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -14523,34 +14523,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="177" t="s">
+      <c r="F45" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="177"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="177"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="177"/>
-      <c r="R45" s="179" t="s">
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="180"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="180"/>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="179"/>
-      <c r="T45" s="179"/>
-      <c r="U45" s="179"/>
-      <c r="V45" s="179"/>
-      <c r="W45" s="179"/>
-      <c r="X45" s="179"/>
-      <c r="Y45" s="179"/>
-      <c r="Z45" s="179"/>
-      <c r="AA45" s="179"/>
-      <c r="AB45" s="179"/>
-      <c r="AC45" s="179"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="182"/>
+      <c r="W45" s="182"/>
+      <c r="X45" s="182"/>
+      <c r="Y45" s="182"/>
+      <c r="Z45" s="182"/>
+      <c r="AA45" s="182"/>
+      <c r="AB45" s="182"/>
+      <c r="AC45" s="182"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -21647,16 +21647,33 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="S27:AC27"/>
+    <mergeCell ref="S28:AC28"/>
+    <mergeCell ref="S29:AC29"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="S32:AC32"/>
+    <mergeCell ref="S33:AC33"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="G31:R31"/>
     <mergeCell ref="F44:Q44"/>
     <mergeCell ref="F45:Q45"/>
     <mergeCell ref="R39:AC39"/>
@@ -21671,33 +21688,16 @@
     <mergeCell ref="F41:Q41"/>
     <mergeCell ref="F42:Q42"/>
     <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="S27:AC27"/>
-    <mergeCell ref="S28:AC28"/>
-    <mergeCell ref="S29:AC29"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="S32:AC32"/>
-    <mergeCell ref="S33:AC33"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -21735,163 +21735,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="101" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="116" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="101" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="152" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="101" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -23589,39 +23589,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="180" t="s">
+      <c r="F49" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="181"/>
-      <c r="J49" s="181"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="181"/>
-      <c r="M49" s="181"/>
-      <c r="N49" s="181"/>
-      <c r="O49" s="181"/>
-      <c r="P49" s="181"/>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="181"/>
-      <c r="S49" s="181"/>
-      <c r="T49" s="181"/>
-      <c r="U49" s="181"/>
-      <c r="V49" s="182"/>
-      <c r="W49" s="180" t="s">
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="187"/>
+      <c r="W49" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="181"/>
-      <c r="Y49" s="181"/>
-      <c r="Z49" s="181"/>
-      <c r="AA49" s="181"/>
-      <c r="AB49" s="181"/>
-      <c r="AC49" s="181"/>
-      <c r="AD49" s="181"/>
-      <c r="AE49" s="181"/>
-      <c r="AF49" s="181"/>
-      <c r="AG49" s="181"/>
-      <c r="AH49" s="182"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="186"/>
+      <c r="AA49" s="186"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="187"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -24763,39 +24763,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="180" t="s">
+      <c r="F79" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="181"/>
-      <c r="H79" s="181"/>
-      <c r="I79" s="181"/>
-      <c r="J79" s="181"/>
-      <c r="K79" s="181"/>
-      <c r="L79" s="181"/>
-      <c r="M79" s="181"/>
-      <c r="N79" s="181"/>
-      <c r="O79" s="181"/>
-      <c r="P79" s="181"/>
-      <c r="Q79" s="181"/>
-      <c r="R79" s="181"/>
-      <c r="S79" s="181"/>
-      <c r="T79" s="181"/>
-      <c r="U79" s="181"/>
-      <c r="V79" s="182"/>
-      <c r="W79" s="180" t="s">
+      <c r="G79" s="186"/>
+      <c r="H79" s="186"/>
+      <c r="I79" s="186"/>
+      <c r="J79" s="186"/>
+      <c r="K79" s="186"/>
+      <c r="L79" s="186"/>
+      <c r="M79" s="186"/>
+      <c r="N79" s="186"/>
+      <c r="O79" s="186"/>
+      <c r="P79" s="186"/>
+      <c r="Q79" s="186"/>
+      <c r="R79" s="186"/>
+      <c r="S79" s="186"/>
+      <c r="T79" s="186"/>
+      <c r="U79" s="186"/>
+      <c r="V79" s="187"/>
+      <c r="W79" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X79" s="181"/>
-      <c r="Y79" s="181"/>
-      <c r="Z79" s="181"/>
-      <c r="AA79" s="181"/>
-      <c r="AB79" s="181"/>
-      <c r="AC79" s="181"/>
-      <c r="AD79" s="181"/>
-      <c r="AE79" s="181"/>
-      <c r="AF79" s="181"/>
-      <c r="AG79" s="181"/>
-      <c r="AH79" s="182"/>
+      <c r="X79" s="186"/>
+      <c r="Y79" s="186"/>
+      <c r="Z79" s="186"/>
+      <c r="AA79" s="186"/>
+      <c r="AB79" s="186"/>
+      <c r="AC79" s="186"/>
+      <c r="AD79" s="186"/>
+      <c r="AE79" s="186"/>
+      <c r="AF79" s="186"/>
+      <c r="AG79" s="186"/>
+      <c r="AH79" s="187"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -25890,39 +25890,39 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="180" t="s">
+      <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="135"/>
-      <c r="H108" s="135"/>
-      <c r="I108" s="135"/>
-      <c r="J108" s="135"/>
-      <c r="K108" s="135"/>
-      <c r="L108" s="135"/>
-      <c r="M108" s="135"/>
-      <c r="N108" s="135"/>
-      <c r="O108" s="135"/>
-      <c r="P108" s="135"/>
-      <c r="Q108" s="135"/>
-      <c r="R108" s="135"/>
-      <c r="S108" s="135"/>
-      <c r="T108" s="135"/>
-      <c r="U108" s="135"/>
-      <c r="V108" s="136"/>
-      <c r="W108" s="180" t="s">
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="99"/>
+      <c r="Q108" s="99"/>
+      <c r="R108" s="99"/>
+      <c r="S108" s="99"/>
+      <c r="T108" s="99"/>
+      <c r="U108" s="99"/>
+      <c r="V108" s="100"/>
+      <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="135"/>
-      <c r="Y108" s="135"/>
-      <c r="Z108" s="135"/>
-      <c r="AA108" s="135"/>
-      <c r="AB108" s="135"/>
-      <c r="AC108" s="135"/>
-      <c r="AD108" s="135"/>
-      <c r="AE108" s="135"/>
-      <c r="AF108" s="135"/>
-      <c r="AG108" s="135"/>
-      <c r="AH108" s="136"/>
+      <c r="X108" s="99"/>
+      <c r="Y108" s="99"/>
+      <c r="Z108" s="99"/>
+      <c r="AA108" s="99"/>
+      <c r="AB108" s="99"/>
+      <c r="AC108" s="99"/>
+      <c r="AD108" s="99"/>
+      <c r="AE108" s="99"/>
+      <c r="AF108" s="99"/>
+      <c r="AG108" s="99"/>
+      <c r="AH108" s="100"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -26512,39 +26512,39 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="180" t="s">
+      <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="135"/>
-      <c r="H124" s="135"/>
-      <c r="I124" s="135"/>
-      <c r="J124" s="135"/>
-      <c r="K124" s="135"/>
-      <c r="L124" s="135"/>
-      <c r="M124" s="135"/>
-      <c r="N124" s="135"/>
-      <c r="O124" s="135"/>
-      <c r="P124" s="135"/>
-      <c r="Q124" s="135"/>
-      <c r="R124" s="135"/>
-      <c r="S124" s="135"/>
-      <c r="T124" s="135"/>
-      <c r="U124" s="135"/>
-      <c r="V124" s="136"/>
-      <c r="W124" s="180" t="s">
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="99"/>
+      <c r="M124" s="99"/>
+      <c r="N124" s="99"/>
+      <c r="O124" s="99"/>
+      <c r="P124" s="99"/>
+      <c r="Q124" s="99"/>
+      <c r="R124" s="99"/>
+      <c r="S124" s="99"/>
+      <c r="T124" s="99"/>
+      <c r="U124" s="99"/>
+      <c r="V124" s="100"/>
+      <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="135"/>
-      <c r="Y124" s="135"/>
-      <c r="Z124" s="135"/>
-      <c r="AA124" s="135"/>
-      <c r="AB124" s="135"/>
-      <c r="AC124" s="135"/>
-      <c r="AD124" s="135"/>
-      <c r="AE124" s="135"/>
-      <c r="AF124" s="135"/>
-      <c r="AG124" s="135"/>
-      <c r="AH124" s="136"/>
+      <c r="X124" s="99"/>
+      <c r="Y124" s="99"/>
+      <c r="Z124" s="99"/>
+      <c r="AA124" s="99"/>
+      <c r="AB124" s="99"/>
+      <c r="AC124" s="99"/>
+      <c r="AD124" s="99"/>
+      <c r="AE124" s="99"/>
+      <c r="AF124" s="99"/>
+      <c r="AG124" s="99"/>
+      <c r="AH124" s="100"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -28166,39 +28166,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="180" t="s">
+      <c r="F166" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="181"/>
-      <c r="H166" s="181"/>
-      <c r="I166" s="181"/>
-      <c r="J166" s="181"/>
-      <c r="K166" s="181"/>
-      <c r="L166" s="181"/>
-      <c r="M166" s="181"/>
-      <c r="N166" s="181"/>
-      <c r="O166" s="181"/>
-      <c r="P166" s="181"/>
-      <c r="Q166" s="181"/>
-      <c r="R166" s="181"/>
-      <c r="S166" s="181"/>
-      <c r="T166" s="181"/>
-      <c r="U166" s="181"/>
-      <c r="V166" s="182"/>
-      <c r="W166" s="180" t="s">
+      <c r="G166" s="186"/>
+      <c r="H166" s="186"/>
+      <c r="I166" s="186"/>
+      <c r="J166" s="186"/>
+      <c r="K166" s="186"/>
+      <c r="L166" s="186"/>
+      <c r="M166" s="186"/>
+      <c r="N166" s="186"/>
+      <c r="O166" s="186"/>
+      <c r="P166" s="186"/>
+      <c r="Q166" s="186"/>
+      <c r="R166" s="186"/>
+      <c r="S166" s="186"/>
+      <c r="T166" s="186"/>
+      <c r="U166" s="186"/>
+      <c r="V166" s="187"/>
+      <c r="W166" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X166" s="181"/>
-      <c r="Y166" s="181"/>
-      <c r="Z166" s="181"/>
-      <c r="AA166" s="181"/>
-      <c r="AB166" s="181"/>
-      <c r="AC166" s="181"/>
-      <c r="AD166" s="181"/>
-      <c r="AE166" s="181"/>
-      <c r="AF166" s="181"/>
-      <c r="AG166" s="181"/>
-      <c r="AH166" s="182"/>
+      <c r="X166" s="186"/>
+      <c r="Y166" s="186"/>
+      <c r="Z166" s="186"/>
+      <c r="AA166" s="186"/>
+      <c r="AB166" s="186"/>
+      <c r="AC166" s="186"/>
+      <c r="AD166" s="186"/>
+      <c r="AE166" s="186"/>
+      <c r="AF166" s="186"/>
+      <c r="AG166" s="186"/>
+      <c r="AH166" s="187"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -29420,39 +29420,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="180" t="s">
+      <c r="F198" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G198" s="181"/>
-      <c r="H198" s="181"/>
-      <c r="I198" s="181"/>
-      <c r="J198" s="181"/>
-      <c r="K198" s="181"/>
-      <c r="L198" s="181"/>
-      <c r="M198" s="181"/>
-      <c r="N198" s="181"/>
-      <c r="O198" s="181"/>
-      <c r="P198" s="181"/>
-      <c r="Q198" s="181"/>
-      <c r="R198" s="181"/>
-      <c r="S198" s="181"/>
-      <c r="T198" s="181"/>
-      <c r="U198" s="181"/>
-      <c r="V198" s="182"/>
-      <c r="W198" s="180" t="s">
+      <c r="G198" s="186"/>
+      <c r="H198" s="186"/>
+      <c r="I198" s="186"/>
+      <c r="J198" s="186"/>
+      <c r="K198" s="186"/>
+      <c r="L198" s="186"/>
+      <c r="M198" s="186"/>
+      <c r="N198" s="186"/>
+      <c r="O198" s="186"/>
+      <c r="P198" s="186"/>
+      <c r="Q198" s="186"/>
+      <c r="R198" s="186"/>
+      <c r="S198" s="186"/>
+      <c r="T198" s="186"/>
+      <c r="U198" s="186"/>
+      <c r="V198" s="187"/>
+      <c r="W198" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X198" s="181"/>
-      <c r="Y198" s="181"/>
-      <c r="Z198" s="181"/>
-      <c r="AA198" s="181"/>
-      <c r="AB198" s="181"/>
-      <c r="AC198" s="181"/>
-      <c r="AD198" s="181"/>
-      <c r="AE198" s="181"/>
-      <c r="AF198" s="181"/>
-      <c r="AG198" s="181"/>
-      <c r="AH198" s="182"/>
+      <c r="X198" s="186"/>
+      <c r="Y198" s="186"/>
+      <c r="Z198" s="186"/>
+      <c r="AA198" s="186"/>
+      <c r="AB198" s="186"/>
+      <c r="AC198" s="186"/>
+      <c r="AD198" s="186"/>
+      <c r="AE198" s="186"/>
+      <c r="AF198" s="186"/>
+      <c r="AG198" s="186"/>
+      <c r="AH198" s="187"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -30935,39 +30935,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="180" t="s">
+      <c r="F237" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="181"/>
-      <c r="H237" s="181"/>
-      <c r="I237" s="181"/>
-      <c r="J237" s="181"/>
-      <c r="K237" s="181"/>
-      <c r="L237" s="181"/>
-      <c r="M237" s="181"/>
-      <c r="N237" s="181"/>
-      <c r="O237" s="181"/>
-      <c r="P237" s="181"/>
-      <c r="Q237" s="181"/>
-      <c r="R237" s="181"/>
-      <c r="S237" s="181"/>
-      <c r="T237" s="181"/>
-      <c r="U237" s="181"/>
-      <c r="V237" s="182"/>
-      <c r="W237" s="180" t="s">
+      <c r="G237" s="186"/>
+      <c r="H237" s="186"/>
+      <c r="I237" s="186"/>
+      <c r="J237" s="186"/>
+      <c r="K237" s="186"/>
+      <c r="L237" s="186"/>
+      <c r="M237" s="186"/>
+      <c r="N237" s="186"/>
+      <c r="O237" s="186"/>
+      <c r="P237" s="186"/>
+      <c r="Q237" s="186"/>
+      <c r="R237" s="186"/>
+      <c r="S237" s="186"/>
+      <c r="T237" s="186"/>
+      <c r="U237" s="186"/>
+      <c r="V237" s="187"/>
+      <c r="W237" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X237" s="181"/>
-      <c r="Y237" s="181"/>
-      <c r="Z237" s="181"/>
-      <c r="AA237" s="181"/>
-      <c r="AB237" s="181"/>
-      <c r="AC237" s="181"/>
-      <c r="AD237" s="181"/>
-      <c r="AE237" s="181"/>
-      <c r="AF237" s="181"/>
-      <c r="AG237" s="181"/>
-      <c r="AH237" s="182"/>
+      <c r="X237" s="186"/>
+      <c r="Y237" s="186"/>
+      <c r="Z237" s="186"/>
+      <c r="AA237" s="186"/>
+      <c r="AB237" s="186"/>
+      <c r="AC237" s="186"/>
+      <c r="AD237" s="186"/>
+      <c r="AE237" s="186"/>
+      <c r="AF237" s="186"/>
+      <c r="AG237" s="186"/>
+      <c r="AH237" s="187"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -31789,39 +31789,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="180" t="s">
+      <c r="F259" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G259" s="181"/>
-      <c r="H259" s="181"/>
-      <c r="I259" s="181"/>
-      <c r="J259" s="181"/>
-      <c r="K259" s="181"/>
-      <c r="L259" s="181"/>
-      <c r="M259" s="181"/>
-      <c r="N259" s="181"/>
-      <c r="O259" s="181"/>
-      <c r="P259" s="181"/>
-      <c r="Q259" s="181"/>
-      <c r="R259" s="181"/>
-      <c r="S259" s="181"/>
-      <c r="T259" s="181"/>
-      <c r="U259" s="181"/>
-      <c r="V259" s="182"/>
-      <c r="W259" s="180" t="s">
+      <c r="G259" s="186"/>
+      <c r="H259" s="186"/>
+      <c r="I259" s="186"/>
+      <c r="J259" s="186"/>
+      <c r="K259" s="186"/>
+      <c r="L259" s="186"/>
+      <c r="M259" s="186"/>
+      <c r="N259" s="186"/>
+      <c r="O259" s="186"/>
+      <c r="P259" s="186"/>
+      <c r="Q259" s="186"/>
+      <c r="R259" s="186"/>
+      <c r="S259" s="186"/>
+      <c r="T259" s="186"/>
+      <c r="U259" s="186"/>
+      <c r="V259" s="187"/>
+      <c r="W259" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X259" s="181"/>
-      <c r="Y259" s="181"/>
-      <c r="Z259" s="181"/>
-      <c r="AA259" s="181"/>
-      <c r="AB259" s="181"/>
-      <c r="AC259" s="181"/>
-      <c r="AD259" s="181"/>
-      <c r="AE259" s="181"/>
-      <c r="AF259" s="181"/>
-      <c r="AG259" s="181"/>
-      <c r="AH259" s="182"/>
+      <c r="X259" s="186"/>
+      <c r="Y259" s="186"/>
+      <c r="Z259" s="186"/>
+      <c r="AA259" s="186"/>
+      <c r="AB259" s="186"/>
+      <c r="AC259" s="186"/>
+      <c r="AD259" s="186"/>
+      <c r="AE259" s="186"/>
+      <c r="AF259" s="186"/>
+      <c r="AG259" s="186"/>
+      <c r="AH259" s="187"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -32329,39 +32329,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="180" t="s">
+      <c r="F273" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G273" s="181"/>
-      <c r="H273" s="181"/>
-      <c r="I273" s="181"/>
-      <c r="J273" s="181"/>
-      <c r="K273" s="181"/>
-      <c r="L273" s="181"/>
-      <c r="M273" s="181"/>
-      <c r="N273" s="181"/>
-      <c r="O273" s="181"/>
-      <c r="P273" s="181"/>
-      <c r="Q273" s="181"/>
-      <c r="R273" s="181"/>
-      <c r="S273" s="181"/>
-      <c r="T273" s="181"/>
-      <c r="U273" s="181"/>
-      <c r="V273" s="182"/>
-      <c r="W273" s="180" t="s">
+      <c r="G273" s="186"/>
+      <c r="H273" s="186"/>
+      <c r="I273" s="186"/>
+      <c r="J273" s="186"/>
+      <c r="K273" s="186"/>
+      <c r="L273" s="186"/>
+      <c r="M273" s="186"/>
+      <c r="N273" s="186"/>
+      <c r="O273" s="186"/>
+      <c r="P273" s="186"/>
+      <c r="Q273" s="186"/>
+      <c r="R273" s="186"/>
+      <c r="S273" s="186"/>
+      <c r="T273" s="186"/>
+      <c r="U273" s="186"/>
+      <c r="V273" s="187"/>
+      <c r="W273" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X273" s="181"/>
-      <c r="Y273" s="181"/>
-      <c r="Z273" s="181"/>
-      <c r="AA273" s="181"/>
-      <c r="AB273" s="181"/>
-      <c r="AC273" s="181"/>
-      <c r="AD273" s="181"/>
-      <c r="AE273" s="181"/>
-      <c r="AF273" s="181"/>
-      <c r="AG273" s="181"/>
-      <c r="AH273" s="182"/>
+      <c r="X273" s="186"/>
+      <c r="Y273" s="186"/>
+      <c r="Z273" s="186"/>
+      <c r="AA273" s="186"/>
+      <c r="AB273" s="186"/>
+      <c r="AC273" s="186"/>
+      <c r="AD273" s="186"/>
+      <c r="AE273" s="186"/>
+      <c r="AF273" s="186"/>
+      <c r="AG273" s="186"/>
+      <c r="AH273" s="187"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -33191,39 +33191,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="180" t="s">
+      <c r="F295" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G295" s="181"/>
-      <c r="H295" s="181"/>
-      <c r="I295" s="181"/>
-      <c r="J295" s="181"/>
-      <c r="K295" s="181"/>
-      <c r="L295" s="181"/>
-      <c r="M295" s="181"/>
-      <c r="N295" s="181"/>
-      <c r="O295" s="181"/>
-      <c r="P295" s="181"/>
-      <c r="Q295" s="181"/>
-      <c r="R295" s="181"/>
-      <c r="S295" s="181"/>
-      <c r="T295" s="181"/>
-      <c r="U295" s="181"/>
-      <c r="V295" s="182"/>
-      <c r="W295" s="180" t="s">
+      <c r="G295" s="186"/>
+      <c r="H295" s="186"/>
+      <c r="I295" s="186"/>
+      <c r="J295" s="186"/>
+      <c r="K295" s="186"/>
+      <c r="L295" s="186"/>
+      <c r="M295" s="186"/>
+      <c r="N295" s="186"/>
+      <c r="O295" s="186"/>
+      <c r="P295" s="186"/>
+      <c r="Q295" s="186"/>
+      <c r="R295" s="186"/>
+      <c r="S295" s="186"/>
+      <c r="T295" s="186"/>
+      <c r="U295" s="186"/>
+      <c r="V295" s="187"/>
+      <c r="W295" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X295" s="181"/>
-      <c r="Y295" s="181"/>
-      <c r="Z295" s="181"/>
-      <c r="AA295" s="181"/>
-      <c r="AB295" s="181"/>
-      <c r="AC295" s="181"/>
-      <c r="AD295" s="181"/>
-      <c r="AE295" s="181"/>
-      <c r="AF295" s="181"/>
-      <c r="AG295" s="181"/>
-      <c r="AH295" s="182"/>
+      <c r="X295" s="186"/>
+      <c r="Y295" s="186"/>
+      <c r="Z295" s="186"/>
+      <c r="AA295" s="186"/>
+      <c r="AB295" s="186"/>
+      <c r="AC295" s="186"/>
+      <c r="AD295" s="186"/>
+      <c r="AE295" s="186"/>
+      <c r="AF295" s="186"/>
+      <c r="AG295" s="186"/>
+      <c r="AH295" s="187"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -34817,39 +34817,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="180" t="s">
+      <c r="F337" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="G337" s="181"/>
-      <c r="H337" s="181"/>
-      <c r="I337" s="181"/>
-      <c r="J337" s="181"/>
-      <c r="K337" s="181"/>
-      <c r="L337" s="181"/>
-      <c r="M337" s="181"/>
-      <c r="N337" s="181"/>
-      <c r="O337" s="181"/>
-      <c r="P337" s="181"/>
-      <c r="Q337" s="181"/>
-      <c r="R337" s="181"/>
-      <c r="S337" s="181"/>
-      <c r="T337" s="181"/>
-      <c r="U337" s="181"/>
-      <c r="V337" s="182"/>
-      <c r="W337" s="180" t="s">
+      <c r="G337" s="186"/>
+      <c r="H337" s="186"/>
+      <c r="I337" s="186"/>
+      <c r="J337" s="186"/>
+      <c r="K337" s="186"/>
+      <c r="L337" s="186"/>
+      <c r="M337" s="186"/>
+      <c r="N337" s="186"/>
+      <c r="O337" s="186"/>
+      <c r="P337" s="186"/>
+      <c r="Q337" s="186"/>
+      <c r="R337" s="186"/>
+      <c r="S337" s="186"/>
+      <c r="T337" s="186"/>
+      <c r="U337" s="186"/>
+      <c r="V337" s="187"/>
+      <c r="W337" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X337" s="181"/>
-      <c r="Y337" s="181"/>
-      <c r="Z337" s="181"/>
-      <c r="AA337" s="181"/>
-      <c r="AB337" s="181"/>
-      <c r="AC337" s="181"/>
-      <c r="AD337" s="181"/>
-      <c r="AE337" s="181"/>
-      <c r="AF337" s="181"/>
-      <c r="AG337" s="181"/>
-      <c r="AH337" s="182"/>
+      <c r="X337" s="186"/>
+      <c r="Y337" s="186"/>
+      <c r="Z337" s="186"/>
+      <c r="AA337" s="186"/>
+      <c r="AB337" s="186"/>
+      <c r="AC337" s="186"/>
+      <c r="AD337" s="186"/>
+      <c r="AE337" s="186"/>
+      <c r="AF337" s="186"/>
+      <c r="AG337" s="186"/>
+      <c r="AH337" s="187"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35269,15 +35269,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35294,20 +35299,15 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35345,163 +35345,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="101" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="164" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="163" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="189" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="125" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="101" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="125" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="152" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="101" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="125" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -35843,40 +35843,40 @@
       <c r="D10" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="180" t="s">
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="181"/>
-      <c r="AD10" s="181"/>
-      <c r="AE10" s="181"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="182"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="187"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -35903,38 +35903,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="186" t="s">
+      <c r="E11" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="188"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="136"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="100"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -35962,39 +35962,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="183" t="s">
+      <c r="F12" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="184"/>
-      <c r="S12" s="184"/>
-      <c r="T12" s="184"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="183" t="s">
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="198"/>
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="184"/>
-      <c r="X12" s="184"/>
-      <c r="Y12" s="184"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="184"/>
-      <c r="AD12" s="184"/>
-      <c r="AE12" s="184"/>
-      <c r="AF12" s="184"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="185"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36022,39 +36022,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="184"/>
-      <c r="S13" s="184"/>
-      <c r="T13" s="184"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="183" t="s">
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="184"/>
-      <c r="X13" s="184"/>
-      <c r="Y13" s="184"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="184"/>
-      <c r="AE13" s="184"/>
-      <c r="AF13" s="184"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="185"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="198"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="199"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36082,39 +36082,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="184"/>
-      <c r="S14" s="184"/>
-      <c r="T14" s="184"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="183" t="s">
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="184"/>
-      <c r="X14" s="184"/>
-      <c r="Y14" s="184"/>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="184"/>
-      <c r="AB14" s="184"/>
-      <c r="AC14" s="184"/>
-      <c r="AD14" s="184"/>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="184"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="185"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="198"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="198"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="199"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36141,40 +36141,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
-      <c r="T15" s="184"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="183" t="s">
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="184"/>
-      <c r="X15" s="184"/>
-      <c r="Y15" s="184"/>
-      <c r="Z15" s="184"/>
-      <c r="AA15" s="184"/>
-      <c r="AB15" s="184"/>
-      <c r="AC15" s="184"/>
-      <c r="AD15" s="184"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="184"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="185"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="198"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="198"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="199"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -38534,14 +38534,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -38554,15 +38555,14 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>

--- a/shell/シェルスクリプト開発標準.xlsx
+++ b/shell/シェルスクリプト開発標準.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="420">
   <si>
     <t>else</t>
   </si>
@@ -2135,6 +2135,34 @@
       </rPr>
       <t>”</t>
     </r>
+  </si>
+  <si>
+    <t>サンプルプロジェクト</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>サンプルシステム</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.0版</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(新規作成)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2526,7 +2554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2789,7 +2817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,13 +2832,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2819,7 +2847,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2855,7 +2883,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2934,6 +2962,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3350,16 +3381,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -3367,17 +3388,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>]</a:t>
+            <a:t>サンプルプロジェクト</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5340,38 +5351,6 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15529" name="AutoShape 169"/>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4974798" y="29191223"/>
-            <a:ext cx="239957" cy="557875"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightBrace">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 23264"/>
-              <a:gd name="adj2" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="15528" name="Text Box 168"/>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
@@ -5513,7 +5492,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5214754" y="29465998"/>
+            <a:off x="5214754" y="29370748"/>
             <a:ext cx="479913" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -5542,7 +5521,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5694668" y="29366080"/>
+            <a:off x="5694668" y="29270830"/>
             <a:ext cx="2039632" cy="166530"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5597,6 +5576,38 @@
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15529" name="AutoShape 169"/>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4955179" y="29095973"/>
+            <a:ext cx="239957" cy="557875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightBrace">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 23264"/>
+              <a:gd name="adj2" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -8283,9 +8294,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="91" t="str">
+      <c r="I25" s="91">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v/>
+        <v>43336</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="91"/>
@@ -8854,7 +8865,9 @@
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
       <c r="D1" s="125"/>
-      <c r="E1" s="126"/>
+      <c r="E1" s="126" t="s">
+        <v>413</v>
+      </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
@@ -8886,14 +8899,14 @@
       <c r="AB1" s="125"/>
       <c r="AC1" s="150" t="str">
         <f>IF(AF8="","",AF8)</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="117" t="str">
+      <c r="AG1" s="117">
         <f>IF(D8="","",D8)</f>
-        <v/>
+        <v>43336</v>
       </c>
       <c r="AH1" s="118"/>
       <c r="AI1" s="119"/>
@@ -8910,7 +8923,9 @@
       <c r="B2" s="124"/>
       <c r="C2" s="124"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
+      <c r="E2" s="126" t="s">
+        <v>414</v>
+      </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
       <c r="H2" s="127"/>
@@ -8962,7 +8977,7 @@
       <c r="B3" s="124"/>
       <c r="C3" s="124"/>
       <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="127"/>
       <c r="G3" s="127"/>
       <c r="H3" s="127"/>
@@ -9077,23 +9092,35 @@
       <c r="AI7" s="121"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="87">
+        <v>1</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>415</v>
+      </c>
       <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="106">
+        <v>43336</v>
+      </c>
       <c r="E8" s="107"/>
       <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="G8" s="109" t="s">
+        <v>416</v>
+      </c>
       <c r="H8" s="110"/>
       <c r="I8" s="105"/>
-      <c r="J8" s="111"/>
+      <c r="J8" s="111" t="s">
+        <v>417</v>
+      </c>
       <c r="K8" s="112"/>
       <c r="L8" s="112"/>
       <c r="M8" s="112"/>
       <c r="N8" s="112"/>
       <c r="O8" s="112"/>
       <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
+      <c r="Q8" s="114" t="s">
+        <v>418</v>
+      </c>
       <c r="R8" s="115"/>
       <c r="S8" s="115"/>
       <c r="T8" s="115"/>
@@ -9108,7 +9135,9 @@
       <c r="AC8" s="115"/>
       <c r="AD8" s="115"/>
       <c r="AE8" s="116"/>
-      <c r="AF8" s="111"/>
+      <c r="AF8" s="111" t="s">
+        <v>419</v>
+      </c>
       <c r="AG8" s="112"/>
       <c r="AH8" s="112"/>
       <c r="AI8" s="113"/>
@@ -10381,9 +10410,9 @@
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
       <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
+        <v>サンプルプロジェクト</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
@@ -10417,17 +10446,17 @@
       <c r="AB1" s="125"/>
       <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="153" t="str">
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
@@ -10439,9 +10468,9 @@
       <c r="B2" s="124"/>
       <c r="C2" s="124"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
+        <v>サンプルシステム</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
@@ -10475,12 +10504,12 @@
       <c r="AD2" s="151"/>
       <c r="AE2" s="151"/>
       <c r="AF2" s="152"/>
-      <c r="AG2" s="153" t="str">
+      <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -10492,7 +10521,7 @@
       <c r="B3" s="124"/>
       <c r="C3" s="124"/>
       <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
@@ -10526,12 +10555,12 @@
       <c r="AD3" s="151"/>
       <c r="AE3" s="151"/>
       <c r="AF3" s="152"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12053,15 +12082,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
+        <v>サンプルプロジェクト</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
@@ -12072,12 +12101,12 @@
       <c r="L1" s="127"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
@@ -12089,37 +12118,37 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="142"/>
       <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
+      <c r="AB1" s="162"/>
       <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
+        <v>サンプルシステム</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
@@ -12130,10 +12159,10 @@
       <c r="L2" s="127"/>
       <c r="M2" s="127"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="144"/>
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
@@ -12142,10 +12171,10 @@
       <c r="X2" s="145"/>
       <c r="Y2" s="145"/>
       <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
@@ -12153,24 +12182,24 @@
       <c r="AD2" s="151"/>
       <c r="AE2" s="151"/>
       <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
@@ -12183,10 +12212,10 @@
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="147"/>
       <c r="T3" s="148"/>
       <c r="U3" s="148"/>
@@ -12195,8 +12224,8 @@
       <c r="X3" s="148"/>
       <c r="Y3" s="148"/>
       <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
       <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -12204,12 +12233,12 @@
       <c r="AD3" s="151"/>
       <c r="AE3" s="151"/>
       <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12294,36 +12323,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="173" t="s">
+      <c r="E28" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="173" t="s">
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="174"/>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="176"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -12683,15 +12712,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
+        <v>サンプルプロジェクト</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
@@ -12702,12 +12731,12 @@
       <c r="L1" s="127"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+      <c r="O1" s="163" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
@@ -12719,37 +12748,37 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="142"/>
       <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
+      <c r="AB1" s="162"/>
       <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
+        <v>サンプルシステム</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
@@ -12760,10 +12789,10 @@
       <c r="L2" s="127"/>
       <c r="M2" s="127"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="144"/>
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
@@ -12772,10 +12801,10 @@
       <c r="X2" s="145"/>
       <c r="Y2" s="145"/>
       <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
@@ -12783,24 +12812,24 @@
       <c r="AD2" s="151"/>
       <c r="AE2" s="151"/>
       <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
@@ -12813,10 +12842,10 @@
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="147"/>
       <c r="T3" s="148"/>
       <c r="U3" s="148"/>
@@ -12825,8 +12854,8 @@
       <c r="X3" s="148"/>
       <c r="Y3" s="148"/>
       <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
       <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -12834,12 +12863,12 @@
       <c r="AD3" s="151"/>
       <c r="AE3" s="151"/>
       <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13504,33 +13533,33 @@
       <c r="F21" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="G21" s="182" t="s">
+      <c r="G21" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182" t="s">
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -13547,33 +13576,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
-      <c r="R22" s="183"/>
-      <c r="S22" s="183" t="s">
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="183"/>
-      <c r="U22" s="183"/>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+      <c r="Y22" s="184"/>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -13590,33 +13619,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="183" t="s">
+      <c r="G23" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="183"/>
-      <c r="S23" s="183" t="s">
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="183"/>
-      <c r="U23" s="183"/>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="183"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -13747,33 +13776,33 @@
       <c r="F27" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="180" t="s">
+      <c r="G27" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="180" t="s">
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="180"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="180"/>
-      <c r="Y27" s="180"/>
-      <c r="Z27" s="180"/>
-      <c r="AA27" s="180"/>
-      <c r="AB27" s="180"/>
-      <c r="AC27" s="180"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -13790,33 +13819,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
-      <c r="R28" s="179"/>
-      <c r="S28" s="179" t="s">
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="179"/>
-      <c r="U28" s="179"/>
-      <c r="V28" s="179"/>
-      <c r="W28" s="179"/>
-      <c r="X28" s="179"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="179"/>
-      <c r="AB28" s="179"/>
-      <c r="AC28" s="179"/>
+      <c r="T28" s="180"/>
+      <c r="U28" s="180"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="180"/>
+      <c r="X28" s="180"/>
+      <c r="Y28" s="180"/>
+      <c r="Z28" s="180"/>
+      <c r="AA28" s="180"/>
+      <c r="AB28" s="180"/>
+      <c r="AC28" s="180"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -13833,33 +13862,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="179" t="s">
+      <c r="G29" s="180" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="179"/>
-      <c r="S29" s="179" t="s">
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="179"/>
-      <c r="U29" s="179"/>
-      <c r="V29" s="179"/>
-      <c r="W29" s="179"/>
-      <c r="X29" s="179"/>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="179"/>
-      <c r="AC29" s="179"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="180"/>
+      <c r="AA29" s="180"/>
+      <c r="AB29" s="180"/>
+      <c r="AC29" s="180"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -13876,33 +13905,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="179" t="s">
+      <c r="G30" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
-      <c r="R30" s="179"/>
-      <c r="S30" s="179" t="s">
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="180"/>
+      <c r="Q30" s="180"/>
+      <c r="R30" s="180"/>
+      <c r="S30" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="179"/>
-      <c r="U30" s="179"/>
-      <c r="V30" s="179"/>
-      <c r="W30" s="179"/>
-      <c r="X30" s="179"/>
-      <c r="Y30" s="179"/>
-      <c r="Z30" s="179"/>
-      <c r="AA30" s="179"/>
-      <c r="AB30" s="179"/>
-      <c r="AC30" s="179"/>
+      <c r="T30" s="180"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="180"/>
+      <c r="W30" s="180"/>
+      <c r="X30" s="180"/>
+      <c r="Y30" s="180"/>
+      <c r="Z30" s="180"/>
+      <c r="AA30" s="180"/>
+      <c r="AB30" s="180"/>
+      <c r="AC30" s="180"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -13919,33 +13948,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="179"/>
-      <c r="Q31" s="179"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="179" t="s">
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="179"/>
-      <c r="U31" s="179"/>
-      <c r="V31" s="179"/>
-      <c r="W31" s="179"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="179"/>
-      <c r="Z31" s="179"/>
-      <c r="AA31" s="179"/>
-      <c r="AB31" s="179"/>
-      <c r="AC31" s="179"/>
+      <c r="T31" s="180"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="180"/>
+      <c r="W31" s="180"/>
+      <c r="X31" s="180"/>
+      <c r="Y31" s="180"/>
+      <c r="Z31" s="180"/>
+      <c r="AA31" s="180"/>
+      <c r="AB31" s="180"/>
+      <c r="AC31" s="180"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -13962,33 +13991,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="179" t="s">
+      <c r="G32" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="179"/>
-      <c r="S32" s="179" t="s">
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="180"/>
+      <c r="Q32" s="180"/>
+      <c r="R32" s="180"/>
+      <c r="S32" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="179"/>
-      <c r="U32" s="179"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="179"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="179"/>
-      <c r="AC32" s="179"/>
+      <c r="T32" s="180"/>
+      <c r="U32" s="180"/>
+      <c r="V32" s="180"/>
+      <c r="W32" s="180"/>
+      <c r="X32" s="180"/>
+      <c r="Y32" s="180"/>
+      <c r="Z32" s="180"/>
+      <c r="AA32" s="180"/>
+      <c r="AB32" s="180"/>
+      <c r="AC32" s="180"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14005,33 +14034,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="179" t="s">
+      <c r="G33" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="179" t="s">
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="180"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="179"/>
-      <c r="U33" s="179"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="179"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="179"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="179"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="179"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="180"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="180"/>
+      <c r="X33" s="180"/>
+      <c r="Y33" s="180"/>
+      <c r="Z33" s="180"/>
+      <c r="AA33" s="180"/>
+      <c r="AB33" s="180"/>
+      <c r="AC33" s="180"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14236,34 +14265,34 @@
       <c r="E39" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180" t="s">
+      <c r="G39" s="181"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="181"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="181"/>
+      <c r="M39" s="181"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="180"/>
-      <c r="T39" s="180"/>
-      <c r="U39" s="180"/>
-      <c r="V39" s="180"/>
-      <c r="W39" s="180"/>
-      <c r="X39" s="180"/>
-      <c r="Y39" s="180"/>
-      <c r="Z39" s="180"/>
-      <c r="AA39" s="180"/>
-      <c r="AB39" s="180"/>
-      <c r="AC39" s="180"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
+      <c r="X39" s="181"/>
+      <c r="Y39" s="181"/>
+      <c r="Z39" s="181"/>
+      <c r="AA39" s="181"/>
+      <c r="AB39" s="181"/>
+      <c r="AC39" s="181"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14279,34 +14308,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="179" t="s">
+      <c r="F40" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="179"/>
-      <c r="L40" s="179"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="181" t="s">
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="182" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="181"/>
-      <c r="T40" s="181"/>
-      <c r="U40" s="181"/>
-      <c r="V40" s="181"/>
-      <c r="W40" s="181"/>
-      <c r="X40" s="181"/>
-      <c r="Y40" s="181"/>
-      <c r="Z40" s="181"/>
-      <c r="AA40" s="181"/>
-      <c r="AB40" s="181"/>
-      <c r="AC40" s="181"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="182"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="182"/>
+      <c r="X40" s="182"/>
+      <c r="Y40" s="182"/>
+      <c r="Z40" s="182"/>
+      <c r="AA40" s="182"/>
+      <c r="AB40" s="182"/>
+      <c r="AC40" s="182"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14322,34 +14351,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="179" t="s">
+      <c r="F41" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="181" t="s">
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="181"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="181"/>
-      <c r="Y41" s="181"/>
-      <c r="Z41" s="181"/>
-      <c r="AA41" s="181"/>
-      <c r="AB41" s="181"/>
-      <c r="AC41" s="181"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="182"/>
+      <c r="Y41" s="182"/>
+      <c r="Z41" s="182"/>
+      <c r="AA41" s="182"/>
+      <c r="AB41" s="182"/>
+      <c r="AC41" s="182"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14365,34 +14394,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="179" t="s">
+      <c r="F42" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="181" t="s">
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="181"/>
-      <c r="V42" s="181"/>
-      <c r="W42" s="181"/>
-      <c r="X42" s="181"/>
-      <c r="Y42" s="181"/>
-      <c r="Z42" s="181"/>
-      <c r="AA42" s="181"/>
-      <c r="AB42" s="181"/>
-      <c r="AC42" s="181"/>
+      <c r="S42" s="182"/>
+      <c r="T42" s="182"/>
+      <c r="U42" s="182"/>
+      <c r="V42" s="182"/>
+      <c r="W42" s="182"/>
+      <c r="X42" s="182"/>
+      <c r="Y42" s="182"/>
+      <c r="Z42" s="182"/>
+      <c r="AA42" s="182"/>
+      <c r="AB42" s="182"/>
+      <c r="AC42" s="182"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14408,34 +14437,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="179" t="s">
+      <c r="F43" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="179"/>
-      <c r="N43" s="179"/>
-      <c r="O43" s="179"/>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="179"/>
-      <c r="R43" s="181" t="s">
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="180"/>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="181"/>
-      <c r="T43" s="181"/>
-      <c r="U43" s="181"/>
-      <c r="V43" s="181"/>
-      <c r="W43" s="181"/>
-      <c r="X43" s="181"/>
-      <c r="Y43" s="181"/>
-      <c r="Z43" s="181"/>
-      <c r="AA43" s="181"/>
-      <c r="AB43" s="181"/>
-      <c r="AC43" s="181"/>
+      <c r="S43" s="182"/>
+      <c r="T43" s="182"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="182"/>
+      <c r="X43" s="182"/>
+      <c r="Y43" s="182"/>
+      <c r="Z43" s="182"/>
+      <c r="AA43" s="182"/>
+      <c r="AB43" s="182"/>
+      <c r="AC43" s="182"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -14451,34 +14480,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="179" t="s">
+      <c r="F44" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="179"/>
-      <c r="M44" s="179"/>
-      <c r="N44" s="179"/>
-      <c r="O44" s="179"/>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="179"/>
-      <c r="R44" s="181" t="s">
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="180"/>
+      <c r="R44" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="181"/>
-      <c r="T44" s="181"/>
-      <c r="U44" s="181"/>
-      <c r="V44" s="181"/>
-      <c r="W44" s="181"/>
-      <c r="X44" s="181"/>
-      <c r="Y44" s="181"/>
-      <c r="Z44" s="181"/>
-      <c r="AA44" s="181"/>
-      <c r="AB44" s="181"/>
-      <c r="AC44" s="181"/>
+      <c r="S44" s="182"/>
+      <c r="T44" s="182"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="182"/>
+      <c r="W44" s="182"/>
+      <c r="X44" s="182"/>
+      <c r="Y44" s="182"/>
+      <c r="Z44" s="182"/>
+      <c r="AA44" s="182"/>
+      <c r="AB44" s="182"/>
+      <c r="AC44" s="182"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -14494,34 +14523,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="179" t="s">
+      <c r="F45" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
-      <c r="J45" s="179"/>
-      <c r="K45" s="179"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="179"/>
-      <c r="N45" s="179"/>
-      <c r="O45" s="179"/>
-      <c r="P45" s="179"/>
-      <c r="Q45" s="179"/>
-      <c r="R45" s="181" t="s">
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="180"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="180"/>
+      <c r="Q45" s="180"/>
+      <c r="R45" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="181"/>
-      <c r="T45" s="181"/>
-      <c r="U45" s="181"/>
-      <c r="V45" s="181"/>
-      <c r="W45" s="181"/>
-      <c r="X45" s="181"/>
-      <c r="Y45" s="181"/>
-      <c r="Z45" s="181"/>
-      <c r="AA45" s="181"/>
-      <c r="AB45" s="181"/>
-      <c r="AC45" s="181"/>
+      <c r="S45" s="182"/>
+      <c r="T45" s="182"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="182"/>
+      <c r="W45" s="182"/>
+      <c r="X45" s="182"/>
+      <c r="Y45" s="182"/>
+      <c r="Z45" s="182"/>
+      <c r="AA45" s="182"/>
+      <c r="AB45" s="182"/>
+      <c r="AC45" s="182"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -21706,15 +21735,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
+        <v>サンプルプロジェクト</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
@@ -21725,12 +21754,12 @@
       <c r="L1" s="127"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+      <c r="O1" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
@@ -21742,37 +21771,37 @@
       <c r="X1" s="142"/>
       <c r="Y1" s="142"/>
       <c r="Z1" s="143"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
+      <c r="AB1" s="162"/>
       <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
+        <v>サンプルシステム</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
@@ -21783,10 +21812,10 @@
       <c r="L2" s="127"/>
       <c r="M2" s="127"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="144"/>
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
@@ -21795,10 +21824,10 @@
       <c r="X2" s="145"/>
       <c r="Y2" s="145"/>
       <c r="Z2" s="146"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
@@ -21806,24 +21835,24 @@
       <c r="AD2" s="151"/>
       <c r="AE2" s="151"/>
       <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
@@ -21836,10 +21865,10 @@
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="147"/>
       <c r="T3" s="148"/>
       <c r="U3" s="148"/>
@@ -21848,8 +21877,8 @@
       <c r="X3" s="148"/>
       <c r="Y3" s="148"/>
       <c r="Z3" s="149"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
       <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -21857,12 +21886,12 @@
       <c r="AD3" s="151"/>
       <c r="AE3" s="151"/>
       <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -23560,39 +23589,39 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="184" t="s">
+      <c r="F49" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="185"/>
-      <c r="M49" s="185"/>
-      <c r="N49" s="185"/>
-      <c r="O49" s="185"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="185"/>
-      <c r="R49" s="185"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="185"/>
-      <c r="U49" s="185"/>
-      <c r="V49" s="186"/>
-      <c r="W49" s="184" t="s">
+      <c r="G49" s="186"/>
+      <c r="H49" s="186"/>
+      <c r="I49" s="186"/>
+      <c r="J49" s="186"/>
+      <c r="K49" s="186"/>
+      <c r="L49" s="186"/>
+      <c r="M49" s="186"/>
+      <c r="N49" s="186"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
+      <c r="R49" s="186"/>
+      <c r="S49" s="186"/>
+      <c r="T49" s="186"/>
+      <c r="U49" s="186"/>
+      <c r="V49" s="187"/>
+      <c r="W49" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="185"/>
-      <c r="Y49" s="185"/>
-      <c r="Z49" s="185"/>
-      <c r="AA49" s="185"/>
-      <c r="AB49" s="185"/>
-      <c r="AC49" s="185"/>
-      <c r="AD49" s="185"/>
-      <c r="AE49" s="185"/>
-      <c r="AF49" s="185"/>
-      <c r="AG49" s="185"/>
-      <c r="AH49" s="186"/>
+      <c r="X49" s="186"/>
+      <c r="Y49" s="186"/>
+      <c r="Z49" s="186"/>
+      <c r="AA49" s="186"/>
+      <c r="AB49" s="186"/>
+      <c r="AC49" s="186"/>
+      <c r="AD49" s="186"/>
+      <c r="AE49" s="186"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="187"/>
       <c r="AI49" s="12"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
@@ -24734,39 +24763,39 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="184" t="s">
+      <c r="F79" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="185"/>
-      <c r="H79" s="185"/>
-      <c r="I79" s="185"/>
-      <c r="J79" s="185"/>
-      <c r="K79" s="185"/>
-      <c r="L79" s="185"/>
-      <c r="M79" s="185"/>
-      <c r="N79" s="185"/>
-      <c r="O79" s="185"/>
-      <c r="P79" s="185"/>
-      <c r="Q79" s="185"/>
-      <c r="R79" s="185"/>
-      <c r="S79" s="185"/>
-      <c r="T79" s="185"/>
-      <c r="U79" s="185"/>
-      <c r="V79" s="186"/>
-      <c r="W79" s="184" t="s">
+      <c r="G79" s="186"/>
+      <c r="H79" s="186"/>
+      <c r="I79" s="186"/>
+      <c r="J79" s="186"/>
+      <c r="K79" s="186"/>
+      <c r="L79" s="186"/>
+      <c r="M79" s="186"/>
+      <c r="N79" s="186"/>
+      <c r="O79" s="186"/>
+      <c r="P79" s="186"/>
+      <c r="Q79" s="186"/>
+      <c r="R79" s="186"/>
+      <c r="S79" s="186"/>
+      <c r="T79" s="186"/>
+      <c r="U79" s="186"/>
+      <c r="V79" s="187"/>
+      <c r="W79" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X79" s="185"/>
-      <c r="Y79" s="185"/>
-      <c r="Z79" s="185"/>
-      <c r="AA79" s="185"/>
-      <c r="AB79" s="185"/>
-      <c r="AC79" s="185"/>
-      <c r="AD79" s="185"/>
-      <c r="AE79" s="185"/>
-      <c r="AF79" s="185"/>
-      <c r="AG79" s="185"/>
-      <c r="AH79" s="186"/>
+      <c r="X79" s="186"/>
+      <c r="Y79" s="186"/>
+      <c r="Z79" s="186"/>
+      <c r="AA79" s="186"/>
+      <c r="AB79" s="186"/>
+      <c r="AC79" s="186"/>
+      <c r="AD79" s="186"/>
+      <c r="AE79" s="186"/>
+      <c r="AF79" s="186"/>
+      <c r="AG79" s="186"/>
+      <c r="AH79" s="187"/>
       <c r="AI79" s="18"/>
     </row>
     <row r="80" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -25861,7 +25890,7 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="184" t="s">
+      <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
       <c r="G108" s="99"/>
@@ -25880,7 +25909,7 @@
       <c r="T108" s="99"/>
       <c r="U108" s="99"/>
       <c r="V108" s="100"/>
-      <c r="W108" s="184" t="s">
+      <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
       <c r="X108" s="99"/>
@@ -26483,7 +26512,7 @@
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="184" t="s">
+      <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
       <c r="G124" s="99"/>
@@ -26502,7 +26531,7 @@
       <c r="T124" s="99"/>
       <c r="U124" s="99"/>
       <c r="V124" s="100"/>
-      <c r="W124" s="184" t="s">
+      <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
       <c r="X124" s="99"/>
@@ -28137,39 +28166,39 @@
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="184" t="s">
+      <c r="F166" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="185"/>
-      <c r="H166" s="185"/>
-      <c r="I166" s="185"/>
-      <c r="J166" s="185"/>
-      <c r="K166" s="185"/>
-      <c r="L166" s="185"/>
-      <c r="M166" s="185"/>
-      <c r="N166" s="185"/>
-      <c r="O166" s="185"/>
-      <c r="P166" s="185"/>
-      <c r="Q166" s="185"/>
-      <c r="R166" s="185"/>
-      <c r="S166" s="185"/>
-      <c r="T166" s="185"/>
-      <c r="U166" s="185"/>
-      <c r="V166" s="186"/>
-      <c r="W166" s="184" t="s">
+      <c r="G166" s="186"/>
+      <c r="H166" s="186"/>
+      <c r="I166" s="186"/>
+      <c r="J166" s="186"/>
+      <c r="K166" s="186"/>
+      <c r="L166" s="186"/>
+      <c r="M166" s="186"/>
+      <c r="N166" s="186"/>
+      <c r="O166" s="186"/>
+      <c r="P166" s="186"/>
+      <c r="Q166" s="186"/>
+      <c r="R166" s="186"/>
+      <c r="S166" s="186"/>
+      <c r="T166" s="186"/>
+      <c r="U166" s="186"/>
+      <c r="V166" s="187"/>
+      <c r="W166" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X166" s="185"/>
-      <c r="Y166" s="185"/>
-      <c r="Z166" s="185"/>
-      <c r="AA166" s="185"/>
-      <c r="AB166" s="185"/>
-      <c r="AC166" s="185"/>
-      <c r="AD166" s="185"/>
-      <c r="AE166" s="185"/>
-      <c r="AF166" s="185"/>
-      <c r="AG166" s="185"/>
-      <c r="AH166" s="186"/>
+      <c r="X166" s="186"/>
+      <c r="Y166" s="186"/>
+      <c r="Z166" s="186"/>
+      <c r="AA166" s="186"/>
+      <c r="AB166" s="186"/>
+      <c r="AC166" s="186"/>
+      <c r="AD166" s="186"/>
+      <c r="AE166" s="186"/>
+      <c r="AF166" s="186"/>
+      <c r="AG166" s="186"/>
+      <c r="AH166" s="187"/>
       <c r="AI166" s="18"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.15">
@@ -29391,39 +29420,39 @@
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="184" t="s">
+      <c r="F198" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G198" s="185"/>
-      <c r="H198" s="185"/>
-      <c r="I198" s="185"/>
-      <c r="J198" s="185"/>
-      <c r="K198" s="185"/>
-      <c r="L198" s="185"/>
-      <c r="M198" s="185"/>
-      <c r="N198" s="185"/>
-      <c r="O198" s="185"/>
-      <c r="P198" s="185"/>
-      <c r="Q198" s="185"/>
-      <c r="R198" s="185"/>
-      <c r="S198" s="185"/>
-      <c r="T198" s="185"/>
-      <c r="U198" s="185"/>
-      <c r="V198" s="186"/>
-      <c r="W198" s="184" t="s">
+      <c r="G198" s="186"/>
+      <c r="H198" s="186"/>
+      <c r="I198" s="186"/>
+      <c r="J198" s="186"/>
+      <c r="K198" s="186"/>
+      <c r="L198" s="186"/>
+      <c r="M198" s="186"/>
+      <c r="N198" s="186"/>
+      <c r="O198" s="186"/>
+      <c r="P198" s="186"/>
+      <c r="Q198" s="186"/>
+      <c r="R198" s="186"/>
+      <c r="S198" s="186"/>
+      <c r="T198" s="186"/>
+      <c r="U198" s="186"/>
+      <c r="V198" s="187"/>
+      <c r="W198" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X198" s="185"/>
-      <c r="Y198" s="185"/>
-      <c r="Z198" s="185"/>
-      <c r="AA198" s="185"/>
-      <c r="AB198" s="185"/>
-      <c r="AC198" s="185"/>
-      <c r="AD198" s="185"/>
-      <c r="AE198" s="185"/>
-      <c r="AF198" s="185"/>
-      <c r="AG198" s="185"/>
-      <c r="AH198" s="186"/>
+      <c r="X198" s="186"/>
+      <c r="Y198" s="186"/>
+      <c r="Z198" s="186"/>
+      <c r="AA198" s="186"/>
+      <c r="AB198" s="186"/>
+      <c r="AC198" s="186"/>
+      <c r="AD198" s="186"/>
+      <c r="AE198" s="186"/>
+      <c r="AF198" s="186"/>
+      <c r="AG198" s="186"/>
+      <c r="AH198" s="187"/>
       <c r="AI198" s="18"/>
     </row>
     <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -30906,39 +30935,39 @@
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
-      <c r="F237" s="184" t="s">
+      <c r="F237" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G237" s="185"/>
-      <c r="H237" s="185"/>
-      <c r="I237" s="185"/>
-      <c r="J237" s="185"/>
-      <c r="K237" s="185"/>
-      <c r="L237" s="185"/>
-      <c r="M237" s="185"/>
-      <c r="N237" s="185"/>
-      <c r="O237" s="185"/>
-      <c r="P237" s="185"/>
-      <c r="Q237" s="185"/>
-      <c r="R237" s="185"/>
-      <c r="S237" s="185"/>
-      <c r="T237" s="185"/>
-      <c r="U237" s="185"/>
-      <c r="V237" s="186"/>
-      <c r="W237" s="184" t="s">
+      <c r="G237" s="186"/>
+      <c r="H237" s="186"/>
+      <c r="I237" s="186"/>
+      <c r="J237" s="186"/>
+      <c r="K237" s="186"/>
+      <c r="L237" s="186"/>
+      <c r="M237" s="186"/>
+      <c r="N237" s="186"/>
+      <c r="O237" s="186"/>
+      <c r="P237" s="186"/>
+      <c r="Q237" s="186"/>
+      <c r="R237" s="186"/>
+      <c r="S237" s="186"/>
+      <c r="T237" s="186"/>
+      <c r="U237" s="186"/>
+      <c r="V237" s="187"/>
+      <c r="W237" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X237" s="185"/>
-      <c r="Y237" s="185"/>
-      <c r="Z237" s="185"/>
-      <c r="AA237" s="185"/>
-      <c r="AB237" s="185"/>
-      <c r="AC237" s="185"/>
-      <c r="AD237" s="185"/>
-      <c r="AE237" s="185"/>
-      <c r="AF237" s="185"/>
-      <c r="AG237" s="185"/>
-      <c r="AH237" s="186"/>
+      <c r="X237" s="186"/>
+      <c r="Y237" s="186"/>
+      <c r="Z237" s="186"/>
+      <c r="AA237" s="186"/>
+      <c r="AB237" s="186"/>
+      <c r="AC237" s="186"/>
+      <c r="AD237" s="186"/>
+      <c r="AE237" s="186"/>
+      <c r="AF237" s="186"/>
+      <c r="AG237" s="186"/>
+      <c r="AH237" s="187"/>
       <c r="AI237" s="18"/>
     </row>
     <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -31760,39 +31789,39 @@
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
-      <c r="F259" s="184" t="s">
+      <c r="F259" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G259" s="185"/>
-      <c r="H259" s="185"/>
-      <c r="I259" s="185"/>
-      <c r="J259" s="185"/>
-      <c r="K259" s="185"/>
-      <c r="L259" s="185"/>
-      <c r="M259" s="185"/>
-      <c r="N259" s="185"/>
-      <c r="O259" s="185"/>
-      <c r="P259" s="185"/>
-      <c r="Q259" s="185"/>
-      <c r="R259" s="185"/>
-      <c r="S259" s="185"/>
-      <c r="T259" s="185"/>
-      <c r="U259" s="185"/>
-      <c r="V259" s="186"/>
-      <c r="W259" s="184" t="s">
+      <c r="G259" s="186"/>
+      <c r="H259" s="186"/>
+      <c r="I259" s="186"/>
+      <c r="J259" s="186"/>
+      <c r="K259" s="186"/>
+      <c r="L259" s="186"/>
+      <c r="M259" s="186"/>
+      <c r="N259" s="186"/>
+      <c r="O259" s="186"/>
+      <c r="P259" s="186"/>
+      <c r="Q259" s="186"/>
+      <c r="R259" s="186"/>
+      <c r="S259" s="186"/>
+      <c r="T259" s="186"/>
+      <c r="U259" s="186"/>
+      <c r="V259" s="187"/>
+      <c r="W259" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X259" s="185"/>
-      <c r="Y259" s="185"/>
-      <c r="Z259" s="185"/>
-      <c r="AA259" s="185"/>
-      <c r="AB259" s="185"/>
-      <c r="AC259" s="185"/>
-      <c r="AD259" s="185"/>
-      <c r="AE259" s="185"/>
-      <c r="AF259" s="185"/>
-      <c r="AG259" s="185"/>
-      <c r="AH259" s="186"/>
+      <c r="X259" s="186"/>
+      <c r="Y259" s="186"/>
+      <c r="Z259" s="186"/>
+      <c r="AA259" s="186"/>
+      <c r="AB259" s="186"/>
+      <c r="AC259" s="186"/>
+      <c r="AD259" s="186"/>
+      <c r="AE259" s="186"/>
+      <c r="AF259" s="186"/>
+      <c r="AG259" s="186"/>
+      <c r="AH259" s="187"/>
       <c r="AI259" s="18"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.15">
@@ -32300,39 +32329,39 @@
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
-      <c r="F273" s="184" t="s">
+      <c r="F273" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G273" s="185"/>
-      <c r="H273" s="185"/>
-      <c r="I273" s="185"/>
-      <c r="J273" s="185"/>
-      <c r="K273" s="185"/>
-      <c r="L273" s="185"/>
-      <c r="M273" s="185"/>
-      <c r="N273" s="185"/>
-      <c r="O273" s="185"/>
-      <c r="P273" s="185"/>
-      <c r="Q273" s="185"/>
-      <c r="R273" s="185"/>
-      <c r="S273" s="185"/>
-      <c r="T273" s="185"/>
-      <c r="U273" s="185"/>
-      <c r="V273" s="186"/>
-      <c r="W273" s="184" t="s">
+      <c r="G273" s="186"/>
+      <c r="H273" s="186"/>
+      <c r="I273" s="186"/>
+      <c r="J273" s="186"/>
+      <c r="K273" s="186"/>
+      <c r="L273" s="186"/>
+      <c r="M273" s="186"/>
+      <c r="N273" s="186"/>
+      <c r="O273" s="186"/>
+      <c r="P273" s="186"/>
+      <c r="Q273" s="186"/>
+      <c r="R273" s="186"/>
+      <c r="S273" s="186"/>
+      <c r="T273" s="186"/>
+      <c r="U273" s="186"/>
+      <c r="V273" s="187"/>
+      <c r="W273" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X273" s="185"/>
-      <c r="Y273" s="185"/>
-      <c r="Z273" s="185"/>
-      <c r="AA273" s="185"/>
-      <c r="AB273" s="185"/>
-      <c r="AC273" s="185"/>
-      <c r="AD273" s="185"/>
-      <c r="AE273" s="185"/>
-      <c r="AF273" s="185"/>
-      <c r="AG273" s="185"/>
-      <c r="AH273" s="186"/>
+      <c r="X273" s="186"/>
+      <c r="Y273" s="186"/>
+      <c r="Z273" s="186"/>
+      <c r="AA273" s="186"/>
+      <c r="AB273" s="186"/>
+      <c r="AC273" s="186"/>
+      <c r="AD273" s="186"/>
+      <c r="AE273" s="186"/>
+      <c r="AF273" s="186"/>
+      <c r="AG273" s="186"/>
+      <c r="AH273" s="187"/>
       <c r="AI273" s="12"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.15">
@@ -33162,39 +33191,39 @@
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
-      <c r="F295" s="184" t="s">
+      <c r="F295" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="G295" s="185"/>
-      <c r="H295" s="185"/>
-      <c r="I295" s="185"/>
-      <c r="J295" s="185"/>
-      <c r="K295" s="185"/>
-      <c r="L295" s="185"/>
-      <c r="M295" s="185"/>
-      <c r="N295" s="185"/>
-      <c r="O295" s="185"/>
-      <c r="P295" s="185"/>
-      <c r="Q295" s="185"/>
-      <c r="R295" s="185"/>
-      <c r="S295" s="185"/>
-      <c r="T295" s="185"/>
-      <c r="U295" s="185"/>
-      <c r="V295" s="186"/>
-      <c r="W295" s="184" t="s">
+      <c r="G295" s="186"/>
+      <c r="H295" s="186"/>
+      <c r="I295" s="186"/>
+      <c r="J295" s="186"/>
+      <c r="K295" s="186"/>
+      <c r="L295" s="186"/>
+      <c r="M295" s="186"/>
+      <c r="N295" s="186"/>
+      <c r="O295" s="186"/>
+      <c r="P295" s="186"/>
+      <c r="Q295" s="186"/>
+      <c r="R295" s="186"/>
+      <c r="S295" s="186"/>
+      <c r="T295" s="186"/>
+      <c r="U295" s="186"/>
+      <c r="V295" s="187"/>
+      <c r="W295" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X295" s="185"/>
-      <c r="Y295" s="185"/>
-      <c r="Z295" s="185"/>
-      <c r="AA295" s="185"/>
-      <c r="AB295" s="185"/>
-      <c r="AC295" s="185"/>
-      <c r="AD295" s="185"/>
-      <c r="AE295" s="185"/>
-      <c r="AF295" s="185"/>
-      <c r="AG295" s="185"/>
-      <c r="AH295" s="186"/>
+      <c r="X295" s="186"/>
+      <c r="Y295" s="186"/>
+      <c r="Z295" s="186"/>
+      <c r="AA295" s="186"/>
+      <c r="AB295" s="186"/>
+      <c r="AC295" s="186"/>
+      <c r="AD295" s="186"/>
+      <c r="AE295" s="186"/>
+      <c r="AF295" s="186"/>
+      <c r="AG295" s="186"/>
+      <c r="AH295" s="187"/>
       <c r="AI295" s="18"/>
     </row>
     <row r="296" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -34788,39 +34817,39 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="184" t="s">
+      <c r="F337" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="G337" s="185"/>
-      <c r="H337" s="185"/>
-      <c r="I337" s="185"/>
-      <c r="J337" s="185"/>
-      <c r="K337" s="185"/>
-      <c r="L337" s="185"/>
-      <c r="M337" s="185"/>
-      <c r="N337" s="185"/>
-      <c r="O337" s="185"/>
-      <c r="P337" s="185"/>
-      <c r="Q337" s="185"/>
-      <c r="R337" s="185"/>
-      <c r="S337" s="185"/>
-      <c r="T337" s="185"/>
-      <c r="U337" s="185"/>
-      <c r="V337" s="186"/>
-      <c r="W337" s="184" t="s">
+      <c r="G337" s="186"/>
+      <c r="H337" s="186"/>
+      <c r="I337" s="186"/>
+      <c r="J337" s="186"/>
+      <c r="K337" s="186"/>
+      <c r="L337" s="186"/>
+      <c r="M337" s="186"/>
+      <c r="N337" s="186"/>
+      <c r="O337" s="186"/>
+      <c r="P337" s="186"/>
+      <c r="Q337" s="186"/>
+      <c r="R337" s="186"/>
+      <c r="S337" s="186"/>
+      <c r="T337" s="186"/>
+      <c r="U337" s="186"/>
+      <c r="V337" s="187"/>
+      <c r="W337" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X337" s="185"/>
-      <c r="Y337" s="185"/>
-      <c r="Z337" s="185"/>
-      <c r="AA337" s="185"/>
-      <c r="AB337" s="185"/>
-      <c r="AC337" s="185"/>
-      <c r="AD337" s="185"/>
-      <c r="AE337" s="185"/>
-      <c r="AF337" s="185"/>
-      <c r="AG337" s="185"/>
-      <c r="AH337" s="186"/>
+      <c r="X337" s="186"/>
+      <c r="Y337" s="186"/>
+      <c r="Z337" s="186"/>
+      <c r="AA337" s="186"/>
+      <c r="AB337" s="186"/>
+      <c r="AC337" s="186"/>
+      <c r="AD337" s="186"/>
+      <c r="AE337" s="186"/>
+      <c r="AF337" s="186"/>
+      <c r="AG337" s="186"/>
+      <c r="AH337" s="187"/>
       <c r="AI337" s="12"/>
     </row>
     <row r="338" spans="1:35" ht="12" x14ac:dyDescent="0.15">
@@ -35316,15 +35345,15 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v/>
+        <v>サンプルプロジェクト</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="127"/>
@@ -35335,54 +35364,54 @@
       <c r="L1" s="127"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="162" t="s">
+      <c r="O1" s="163" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="187" t="str">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="161"/>
+      <c r="AB1" s="162"/>
       <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD1" s="151"/>
       <c r="AE1" s="151"/>
       <c r="AF1" s="152"/>
-      <c r="AG1" s="176" t="str">
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v/>
-      </c>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="178"/>
+        <v>43336</v>
+      </c>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v/>
+        <v>サンプルシステム</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="127"/>
@@ -35393,22 +35422,22 @@
       <c r="L2" s="127"/>
       <c r="M2" s="127"/>
       <c r="N2" s="128"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="159" t="s">
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="161"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
@@ -35416,24 +35445,24 @@
       <c r="AD2" s="151"/>
       <c r="AE2" s="151"/>
       <c r="AF2" s="152"/>
-      <c r="AG2" s="176" t="str">
+      <c r="AG2" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
@@ -35446,20 +35475,20 @@
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="128"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
       <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
@@ -35467,12 +35496,12 @@
       <c r="AD3" s="151"/>
       <c r="AE3" s="151"/>
       <c r="AF3" s="152"/>
-      <c r="AG3" s="176" t="str">
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="177"/>
-      <c r="AI3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -35814,40 +35843,40 @@
       <c r="D10" s="76" t="s">
         <v>363</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="184" t="s">
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="185"/>
-      <c r="AF10" s="185"/>
-      <c r="AG10" s="185"/>
-      <c r="AH10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+      <c r="AH10" s="187"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
@@ -35874,25 +35903,25 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="202"/>
       <c r="V11" s="98"/>
       <c r="W11" s="99"/>
       <c r="X11" s="99"/>
@@ -35933,39 +35962,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="196" t="s">
+      <c r="F12" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="196" t="s">
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="198"/>
+      <c r="R12" s="198"/>
+      <c r="S12" s="198"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="197"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="197"/>
-      <c r="AH12" s="198"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="198"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -35993,39 +36022,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="196" t="s">
+      <c r="F13" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="197"/>
-      <c r="T13" s="197"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="196" t="s">
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="197"/>
-      <c r="X13" s="197"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="197"/>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="197"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="198"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="198"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="199"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36053,39 +36082,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="196" t="s">
+      <c r="F14" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="196" t="s">
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="197" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="197"/>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="197"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="197"/>
-      <c r="AH14" s="198"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="198"/>
+      <c r="Y14" s="198"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="198"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="198"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="199"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36112,40 +36141,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="197"/>
-      <c r="N15" s="197"/>
-      <c r="O15" s="197"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="196" t="s">
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="199"/>
+      <c r="V15" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="197"/>
-      <c r="X15" s="197"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="197"/>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="197"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="197"/>
-      <c r="AH15" s="198"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="198"/>
+      <c r="Y15" s="198"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="198"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="198"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="199"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>

--- a/shell/シェルスクリプト開発標準.xlsx
+++ b/shell/シェルスクリプト開発標準.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044B8E5-2660-4DEA-828D-069B009BC529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1785" windowWidth="20100" windowHeight="9630" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="21" r:id="rId1"/>
@@ -32,7 +33,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1752,9 +1761,6 @@
     <t>※1 コンポーネント設定ファイル、環境設定ファイルに関しては、「Nablarch Application Framework 解説書 =&gt; リポジトリ」を参照のこと。</t>
   </si>
   <si>
-    <t>※2 テスト環境と結合テスト移行の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
-  </si>
-  <si>
     <t>　  環境差異が、プロパティにインジェクションする値だけではなく、クラス名やプロパティ名（数）等影響が広範囲に広がる場合が該当する。</t>
   </si>
   <si>
@@ -2164,11 +2170,18 @@
     <t>TIS</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>※2 テスト環境と結合テスト以降の環境では環境が大きく異なる場合があり、環境設定ファイルのみでは環境差異を吸収できない場合がある。</t>
+    <rPh sb="14" eb="16">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -2554,7 +2567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2781,81 +2794,6 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2967,6 +2905,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2976,6 +2989,18 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3023,17 +3048,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3044,12 +3063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3057,6 +3070,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3086,39 +3117,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="5"/>
+    <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3141,7 +3160,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3156,7 +3181,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3240,7 +3271,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3340,7 +3377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3448,7 +3491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15460" name="Text Box 100"/>
+        <xdr:cNvPr id="15460" name="Text Box 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000643C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3567,7 +3616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15461" name="Line 101"/>
+        <xdr:cNvPr id="15461" name="Line 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000653C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3621,7 +3676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15462" name="Text Box 102"/>
+        <xdr:cNvPr id="15462" name="Text Box 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000663C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3710,7 +3771,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3723,7 +3790,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15464" name="Text Box 104"/>
+          <xdr:cNvPr id="15464" name="Text Box 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000683C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3941,7 +4014,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15465" name="Group 105"/>
+          <xdr:cNvPr id="15465" name="Group 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000693C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -3962,7 +4041,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15466" name="Line 106"/>
+            <xdr:cNvPr id="15466" name="Line 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -3991,7 +4076,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15467" name="Text Box 107"/>
+            <xdr:cNvPr id="15467" name="Text Box 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4052,7 +4143,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15468" name="Group 108"/>
+          <xdr:cNvPr id="15468" name="Group 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4073,7 +4170,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15469" name="Line 109"/>
+            <xdr:cNvPr id="15469" name="Line 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4102,7 +4205,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15470" name="Text Box 110"/>
+            <xdr:cNvPr id="15470" name="Text Box 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4163,7 +4272,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="グループ化 8"/>
+          <xdr:cNvPr id="9" name="グループ化 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -4176,7 +4291,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15472" name="AutoShape 112"/>
+            <xdr:cNvPr id="15472" name="AutoShape 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000703C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks/>
             </xdr:cNvSpPr>
@@ -4208,7 +4329,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15473" name="Line 113"/>
+            <xdr:cNvPr id="15473" name="Line 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000713C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4237,7 +4364,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15474" name="Text Box 114"/>
+            <xdr:cNvPr id="15474" name="Text Box 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000723C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4319,7 +4452,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4332,7 +4471,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15437" name="Text Box 77"/>
+          <xdr:cNvPr id="15437" name="Text Box 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4545,7 +4690,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15438" name="Group 78"/>
+          <xdr:cNvPr id="15438" name="Group 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4566,7 +4717,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15439" name="Line 79"/>
+            <xdr:cNvPr id="15439" name="Line 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4595,7 +4752,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15440" name="Text Box 80"/>
+            <xdr:cNvPr id="15440" name="Text Box 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000503C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4656,7 +4819,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15498" name="Group 138"/>
+          <xdr:cNvPr id="15498" name="Group 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4677,7 +4846,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15499" name="Line 139"/>
+            <xdr:cNvPr id="15499" name="Line 139">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4706,7 +4881,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15500" name="Text Box 140"/>
+            <xdr:cNvPr id="15500" name="Text Box 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4767,7 +4948,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15501" name="Group 141"/>
+          <xdr:cNvPr id="15501" name="Group 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4788,7 +4975,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15502" name="Line 142"/>
+            <xdr:cNvPr id="15502" name="Line 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008E3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4817,7 +5010,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15503" name="Text Box 143"/>
+            <xdr:cNvPr id="15503" name="Text Box 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4878,7 +5077,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15504" name="Group 144"/>
+          <xdr:cNvPr id="15504" name="Group 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000903C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4899,7 +5104,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15505" name="Line 145"/>
+            <xdr:cNvPr id="15505" name="Line 145">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000913C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4928,7 +5139,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15506" name="Text Box 146"/>
+            <xdr:cNvPr id="15506" name="Text Box 146">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000923C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4989,7 +5206,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15507" name="Group 147"/>
+          <xdr:cNvPr id="15507" name="Group 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000933C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5010,7 +5233,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15508" name="Line 148"/>
+            <xdr:cNvPr id="15508" name="Line 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000943C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5039,7 +5268,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15509" name="Text Box 149"/>
+            <xdr:cNvPr id="15509" name="Text Box 149">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000953C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5100,7 +5335,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15510" name="Group 150"/>
+          <xdr:cNvPr id="15510" name="Group 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000963C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5121,7 +5362,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15511" name="Line 151"/>
+            <xdr:cNvPr id="15511" name="Line 151">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000973C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5150,7 +5397,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15512" name="Text Box 152"/>
+            <xdr:cNvPr id="15512" name="Text Box 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000983C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5211,7 +5464,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15513" name="Group 153"/>
+          <xdr:cNvPr id="15513" name="Group 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000993C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -5232,7 +5491,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15514" name="Line 154"/>
+            <xdr:cNvPr id="15514" name="Line 154">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009A3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -5261,7 +5526,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15515" name="Text Box 155"/>
+            <xdr:cNvPr id="15515" name="Text Box 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B3C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -5338,7 +5609,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5351,7 +5628,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15528" name="Text Box 168"/>
+          <xdr:cNvPr id="15528" name="Text Box 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A83C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5485,7 +5768,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15530" name="Line 170"/>
+          <xdr:cNvPr id="15530" name="Line 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5514,7 +5803,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15531" name="Text Box 171"/>
+          <xdr:cNvPr id="15531" name="Text Box 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AB3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5579,7 +5874,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15529" name="AutoShape 169"/>
+          <xdr:cNvPr id="15529" name="AutoShape 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A93C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
@@ -5627,7 +5928,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15549" name="Group 189"/>
+        <xdr:cNvPr id="15549" name="Group 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BD3C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5642,7 +5949,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15380" name="Rectangle 20"/>
+          <xdr:cNvPr id="15380" name="Rectangle 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000143C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5670,7 +5983,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15381" name="Rectangle 21"/>
+          <xdr:cNvPr id="15381" name="Rectangle 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000153C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5747,7 +6066,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15382" name="AutoShape 22"/>
+          <xdr:cNvPr id="15382" name="AutoShape 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000163C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5796,7 +6121,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15383" name="AutoShape 23"/>
+          <xdr:cNvPr id="15383" name="AutoShape 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000173C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5845,7 +6176,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15384" name="AutoShape 24"/>
+          <xdr:cNvPr id="15384" name="AutoShape 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000183C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5954,7 +6291,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15385" name="Line 25"/>
+          <xdr:cNvPr id="15385" name="Line 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000193C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -5980,7 +6323,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15386" name="Text Box 26"/>
+          <xdr:cNvPr id="15386" name="Text Box 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6023,7 +6372,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15387" name="Line 27"/>
+          <xdr:cNvPr id="15387" name="Line 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6049,7 +6404,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15388" name="Text Box 28"/>
+          <xdr:cNvPr id="15388" name="Text Box 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6092,7 +6453,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15398" name="Text Box 38"/>
+          <xdr:cNvPr id="15398" name="Text Box 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000263C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6135,7 +6502,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15400" name="Text Box 40"/>
+          <xdr:cNvPr id="15400" name="Text Box 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000283C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6178,7 +6551,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15402" name="Text Box 42"/>
+          <xdr:cNvPr id="15402" name="Text Box 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6221,7 +6600,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15404" name="Text Box 44"/>
+          <xdr:cNvPr id="15404" name="Text Box 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6264,7 +6649,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15538" name="AutoShape 178"/>
+          <xdr:cNvPr id="15538" name="AutoShape 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B23C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6338,7 +6729,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15539" name="Line 179"/>
+          <xdr:cNvPr id="15539" name="Line 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B33C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6364,7 +6761,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15540" name="Line 180"/>
+          <xdr:cNvPr id="15540" name="Line 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B43C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6390,7 +6793,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15541" name="Line 181"/>
+          <xdr:cNvPr id="15541" name="Line 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B53C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6416,7 +6825,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15542" name="Line 182"/>
+          <xdr:cNvPr id="15542" name="Line 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B63C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6442,7 +6857,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15543" name="Line 183"/>
+          <xdr:cNvPr id="15543" name="Line 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B73C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6468,7 +6889,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15544" name="Line 184"/>
+          <xdr:cNvPr id="15544" name="Line 184">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B83C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -6494,7 +6921,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15547" name="Text Box 187"/>
+          <xdr:cNvPr id="15547" name="Text Box 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BB3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6537,7 +6970,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15548" name="Text Box 188"/>
+          <xdr:cNvPr id="15548" name="Text Box 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BC3C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6596,7 +7035,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 196"/>
+        <xdr:cNvPr id="70" name="Rectangle 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6799,7 +7244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Rectangle 198"/>
+        <xdr:cNvPr id="73" name="Rectangle 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6915,7 +7366,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16405" name="Group 21"/>
+        <xdr:cNvPr id="16405" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015400000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -6930,7 +7387,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16386" name="AutoShape 2"/>
+          <xdr:cNvPr id="16386" name="AutoShape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6954,7 +7417,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16387" name="AutoShape 3"/>
+          <xdr:cNvPr id="16387" name="AutoShape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7042,7 +7511,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16388" name="AutoShape 4"/>
+          <xdr:cNvPr id="16388" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7130,7 +7605,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16389" name="AutoShape 5"/>
+          <xdr:cNvPr id="16389" name="AutoShape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7233,7 +7714,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16390" name="Text Box 6"/>
+          <xdr:cNvPr id="16390" name="Text Box 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7297,7 +7784,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16391" name="Text Box 7"/>
+          <xdr:cNvPr id="16391" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7361,7 +7854,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16392" name="Line 8"/>
+          <xdr:cNvPr id="16392" name="Line 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7388,7 +7887,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16396" name="Line 12"/>
+          <xdr:cNvPr id="16396" name="Line 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7415,7 +7920,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16397" name="AutoShape 13"/>
+          <xdr:cNvPr id="16397" name="AutoShape 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7503,7 +8014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16398" name="Line 14"/>
+          <xdr:cNvPr id="16398" name="Line 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7530,7 +8047,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16399" name="Text Box 15"/>
+          <xdr:cNvPr id="16399" name="Text Box 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7594,7 +8117,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16402" name="Line 18"/>
+          <xdr:cNvPr id="16402" name="Line 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -7621,7 +8150,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16403" name="Text Box 19"/>
+          <xdr:cNvPr id="16403" name="Text Box 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013400000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -7701,7 +8236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 39"/>
+        <xdr:cNvPr id="17" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8234,7 +8775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8843,7 +9384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8859,57 +9400,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="117">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="92">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="119"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -8917,53 +9458,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
-        <v>414</v>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="117" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="92" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -8971,43 +9512,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="119"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="94"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -9044,1031 +9585,1187 @@
       <c r="A7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="96"/>
     </row>
     <row r="8" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="148" t="s">
         <v>416</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="111" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>418</v>
       </c>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="111" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
     </row>
     <row r="10" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="72"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="100"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
     </row>
     <row r="11" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="100"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="100"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102"/>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="102"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="100"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="72"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="103"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="100"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="102"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="99"/>
-      <c r="AI15" s="100"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="72"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="100"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AI17" s="100"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="72"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="103"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="99"/>
-      <c r="AI18" s="100"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="100"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="72"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="100"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="99"/>
-      <c r="AI21" s="100"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="72"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="102"/>
-      <c r="AE22" s="103"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="100"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="102"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="100"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="100"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="100"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="100"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
-      <c r="AE28" s="103"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
-      <c r="AI28" s="100"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="100"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="100"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="103"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="100"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="72"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="99"/>
-      <c r="AI32" s="100"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
-      <c r="AI33" s="100"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -10092,162 +10789,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10258,7 +10799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10404,53 +10945,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
       <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
@@ -10462,48 +11003,48 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
       <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10515,46 +11056,46 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
       <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10681,7 +11222,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10874,7 +11415,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -10989,7 +11530,7 @@
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12039,14 +12580,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -12056,6 +12589,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12066,7 +12607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12082,175 +12623,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C6" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12276,7 +12817,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C15" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
@@ -12306,7 +12847,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="D21" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
@@ -12314,7 +12855,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C24" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
@@ -12323,36 +12864,36 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="E28" s="174" t="s">
+      <c r="E28" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="174" t="s">
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="175"/>
-      <c r="X28" s="175"/>
-      <c r="Y28" s="175"/>
-      <c r="Z28" s="175"/>
-      <c r="AA28" s="175"/>
-      <c r="AB28" s="175"/>
-      <c r="AC28" s="175"/>
-      <c r="AD28" s="176"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="161"/>
+      <c r="V28" s="161"/>
+      <c r="W28" s="161"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="161"/>
+      <c r="AD28" s="162"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -12663,6 +13204,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AD28"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -12670,18 +13223,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AD28"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -12694,7 +13235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12712,163 +13253,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12913,7 +13454,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -12990,7 +13531,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -13030,7 +13571,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -13107,7 +13648,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -13222,7 +13763,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -13337,7 +13878,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -13491,7 +14032,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -13531,35 +14072,35 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="183" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="183"/>
-      <c r="S21" s="183" t="s">
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180" t="s">
         <v>85</v>
       </c>
-      <c r="T21" s="183"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="183"/>
-      <c r="Z21" s="183"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="180"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="180"/>
+      <c r="Y21" s="180"/>
+      <c r="Z21" s="180"/>
+      <c r="AA21" s="180"/>
+      <c r="AB21" s="180"/>
+      <c r="AC21" s="180"/>
       <c r="AD21" s="50"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
@@ -13576,33 +14117,33 @@
       <c r="F22" s="72">
         <v>1</v>
       </c>
-      <c r="G22" s="184" t="s">
+      <c r="G22" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184" t="s">
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181" t="s">
         <v>212</v>
       </c>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="184"/>
-      <c r="X22" s="184"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="184"/>
-      <c r="AB22" s="184"/>
-      <c r="AC22" s="184"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="181"/>
       <c r="AD22" s="50"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
@@ -13619,33 +14160,33 @@
       <c r="F23" s="72">
         <v>2</v>
       </c>
-      <c r="G23" s="184" t="s">
+      <c r="G23" s="181" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="184"/>
-      <c r="S23" s="184" t="s">
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181" t="s">
         <v>213</v>
       </c>
-      <c r="T23" s="184"/>
-      <c r="U23" s="184"/>
-      <c r="V23" s="184"/>
-      <c r="W23" s="184"/>
-      <c r="X23" s="184"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="184"/>
-      <c r="AB23" s="184"/>
-      <c r="AC23" s="184"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+      <c r="AB23" s="181"/>
+      <c r="AC23" s="181"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
@@ -13774,35 +14315,35 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="G27" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
-      <c r="AC27" s="181"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
       <c r="AD27" s="50"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
@@ -13819,33 +14360,33 @@
       <c r="F28" s="86">
         <v>1</v>
       </c>
-      <c r="G28" s="180" t="s">
+      <c r="G28" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="180" t="s">
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="180"/>
-      <c r="U28" s="180"/>
-      <c r="V28" s="180"/>
-      <c r="W28" s="180"/>
-      <c r="X28" s="180"/>
-      <c r="Y28" s="180"/>
-      <c r="Z28" s="180"/>
-      <c r="AA28" s="180"/>
-      <c r="AB28" s="180"/>
-      <c r="AC28" s="180"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="182"/>
+      <c r="AB28" s="182"/>
+      <c r="AC28" s="182"/>
       <c r="AD28" s="50"/>
       <c r="AE28" s="50"/>
       <c r="AF28" s="50"/>
@@ -13862,33 +14403,33 @@
       <c r="F29" s="86">
         <v>2</v>
       </c>
-      <c r="G29" s="180" t="s">
+      <c r="G29" s="182" t="s">
         <v>203</v>
       </c>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="180" t="s">
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="180"/>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="180"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="180"/>
-      <c r="AB29" s="180"/>
-      <c r="AC29" s="180"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="182"/>
       <c r="AD29" s="50"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
@@ -13905,33 +14446,33 @@
       <c r="F30" s="86">
         <v>3</v>
       </c>
-      <c r="G30" s="180" t="s">
+      <c r="G30" s="182" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180" t="s">
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+      <c r="Q30" s="182"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="180"/>
-      <c r="AC30" s="180"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="182"/>
+      <c r="AB30" s="182"/>
+      <c r="AC30" s="182"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="50"/>
@@ -13948,33 +14489,33 @@
       <c r="F31" s="84">
         <v>4</v>
       </c>
-      <c r="G31" s="180" t="s">
+      <c r="G31" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="180"/>
-      <c r="R31" s="180"/>
-      <c r="S31" s="180" t="s">
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+      <c r="Q31" s="182"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="180"/>
-      <c r="U31" s="180"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="180"/>
-      <c r="Y31" s="180"/>
-      <c r="Z31" s="180"/>
-      <c r="AA31" s="180"/>
-      <c r="AB31" s="180"/>
-      <c r="AC31" s="180"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
       <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
@@ -13991,33 +14532,33 @@
       <c r="F32" s="84">
         <v>5</v>
       </c>
-      <c r="G32" s="180" t="s">
+      <c r="G32" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="180"/>
-      <c r="R32" s="180"/>
-      <c r="S32" s="180" t="s">
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="180"/>
-      <c r="U32" s="180"/>
-      <c r="V32" s="180"/>
-      <c r="W32" s="180"/>
-      <c r="X32" s="180"/>
-      <c r="Y32" s="180"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="180"/>
-      <c r="AB32" s="180"/>
-      <c r="AC32" s="180"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
       <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
@@ -14034,33 +14575,33 @@
       <c r="F33" s="84">
         <v>6</v>
       </c>
-      <c r="G33" s="180" t="s">
+      <c r="G33" s="182" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="180"/>
-      <c r="R33" s="180"/>
-      <c r="S33" s="180" t="s">
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="180"/>
-      <c r="U33" s="180"/>
-      <c r="V33" s="180"/>
-      <c r="W33" s="180"/>
-      <c r="X33" s="180"/>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="180"/>
-      <c r="AA33" s="180"/>
-      <c r="AB33" s="180"/>
-      <c r="AC33" s="180"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AC33" s="182"/>
       <c r="AD33" s="50"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
@@ -14147,7 +14688,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -14263,36 +14804,36 @@
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
       <c r="E39" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F39" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181" t="s">
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="181"/>
-      <c r="T39" s="181"/>
-      <c r="U39" s="181"/>
-      <c r="V39" s="181"/>
-      <c r="W39" s="181"/>
-      <c r="X39" s="181"/>
-      <c r="Y39" s="181"/>
-      <c r="Z39" s="181"/>
-      <c r="AA39" s="181"/>
-      <c r="AB39" s="181"/>
-      <c r="AC39" s="181"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="183"/>
+      <c r="U39" s="183"/>
+      <c r="V39" s="183"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="183"/>
       <c r="AD39" s="50"/>
       <c r="AE39" s="50"/>
       <c r="AF39" s="50"/>
@@ -14308,34 +14849,34 @@
       <c r="E40" s="86">
         <v>1</v>
       </c>
-      <c r="F40" s="180" t="s">
+      <c r="F40" s="182" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="182" t="s">
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="182"/>
-      <c r="T40" s="182"/>
-      <c r="U40" s="182"/>
-      <c r="V40" s="182"/>
-      <c r="W40" s="182"/>
-      <c r="X40" s="182"/>
-      <c r="Y40" s="182"/>
-      <c r="Z40" s="182"/>
-      <c r="AA40" s="182"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
+      <c r="S40" s="184"/>
+      <c r="T40" s="184"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="184"/>
+      <c r="W40" s="184"/>
+      <c r="X40" s="184"/>
+      <c r="Y40" s="184"/>
+      <c r="Z40" s="184"/>
+      <c r="AA40" s="184"/>
+      <c r="AB40" s="184"/>
+      <c r="AC40" s="184"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="50"/>
       <c r="AF40" s="50"/>
@@ -14351,34 +14892,34 @@
       <c r="E41" s="86">
         <v>2</v>
       </c>
-      <c r="F41" s="180" t="s">
+      <c r="F41" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="182" t="s">
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="S41" s="182"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="182"/>
-      <c r="V41" s="182"/>
-      <c r="W41" s="182"/>
-      <c r="X41" s="182"/>
-      <c r="Y41" s="182"/>
-      <c r="Z41" s="182"/>
-      <c r="AA41" s="182"/>
-      <c r="AB41" s="182"/>
-      <c r="AC41" s="182"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="184"/>
+      <c r="W41" s="184"/>
+      <c r="X41" s="184"/>
+      <c r="Y41" s="184"/>
+      <c r="Z41" s="184"/>
+      <c r="AA41" s="184"/>
+      <c r="AB41" s="184"/>
+      <c r="AC41" s="184"/>
       <c r="AD41" s="50"/>
       <c r="AE41" s="50"/>
       <c r="AF41" s="50"/>
@@ -14394,34 +14935,34 @@
       <c r="E42" s="86">
         <v>3</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F42" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
-      <c r="N42" s="180"/>
-      <c r="O42" s="180"/>
-      <c r="P42" s="180"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="182" t="s">
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="182"/>
+      <c r="K42" s="182"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="182"/>
+      <c r="O42" s="182"/>
+      <c r="P42" s="182"/>
+      <c r="Q42" s="182"/>
+      <c r="R42" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="S42" s="182"/>
-      <c r="T42" s="182"/>
-      <c r="U42" s="182"/>
-      <c r="V42" s="182"/>
-      <c r="W42" s="182"/>
-      <c r="X42" s="182"/>
-      <c r="Y42" s="182"/>
-      <c r="Z42" s="182"/>
-      <c r="AA42" s="182"/>
-      <c r="AB42" s="182"/>
-      <c r="AC42" s="182"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="184"/>
+      <c r="AA42" s="184"/>
+      <c r="AB42" s="184"/>
+      <c r="AC42" s="184"/>
       <c r="AD42" s="50"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -14437,34 +14978,34 @@
       <c r="E43" s="84">
         <v>4</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="180"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="182" t="s">
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="182"/>
+      <c r="O43" s="182"/>
+      <c r="P43" s="182"/>
+      <c r="Q43" s="182"/>
+      <c r="R43" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="S43" s="182"/>
-      <c r="T43" s="182"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="182"/>
-      <c r="W43" s="182"/>
-      <c r="X43" s="182"/>
-      <c r="Y43" s="182"/>
-      <c r="Z43" s="182"/>
-      <c r="AA43" s="182"/>
-      <c r="AB43" s="182"/>
-      <c r="AC43" s="182"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="184"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="184"/>
+      <c r="X43" s="184"/>
+      <c r="Y43" s="184"/>
+      <c r="Z43" s="184"/>
+      <c r="AA43" s="184"/>
+      <c r="AB43" s="184"/>
+      <c r="AC43" s="184"/>
       <c r="AD43" s="50"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -14480,34 +15021,34 @@
       <c r="E44" s="84">
         <v>5</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F44" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="180"/>
-      <c r="N44" s="180"/>
-      <c r="O44" s="180"/>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="182" t="s">
+      <c r="G44" s="182"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="182"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="182"/>
+      <c r="O44" s="182"/>
+      <c r="P44" s="182"/>
+      <c r="Q44" s="182"/>
+      <c r="R44" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="S44" s="182"/>
-      <c r="T44" s="182"/>
-      <c r="U44" s="182"/>
-      <c r="V44" s="182"/>
-      <c r="W44" s="182"/>
-      <c r="X44" s="182"/>
-      <c r="Y44" s="182"/>
-      <c r="Z44" s="182"/>
-      <c r="AA44" s="182"/>
-      <c r="AB44" s="182"/>
-      <c r="AC44" s="182"/>
+      <c r="S44" s="184"/>
+      <c r="T44" s="184"/>
+      <c r="U44" s="184"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="184"/>
+      <c r="X44" s="184"/>
+      <c r="Y44" s="184"/>
+      <c r="Z44" s="184"/>
+      <c r="AA44" s="184"/>
+      <c r="AB44" s="184"/>
+      <c r="AC44" s="184"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -14523,34 +15064,34 @@
       <c r="E45" s="84">
         <v>6</v>
       </c>
-      <c r="F45" s="180" t="s">
+      <c r="F45" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="180"/>
-      <c r="O45" s="180"/>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="182" t="s">
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="182"/>
+      <c r="O45" s="182"/>
+      <c r="P45" s="182"/>
+      <c r="Q45" s="182"/>
+      <c r="R45" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="182"/>
-      <c r="V45" s="182"/>
-      <c r="W45" s="182"/>
-      <c r="X45" s="182"/>
-      <c r="Y45" s="182"/>
-      <c r="Z45" s="182"/>
-      <c r="AA45" s="182"/>
-      <c r="AB45" s="182"/>
-      <c r="AC45" s="182"/>
+      <c r="S45" s="184"/>
+      <c r="T45" s="184"/>
+      <c r="U45" s="184"/>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="184"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="184"/>
+      <c r="AA45" s="184"/>
+      <c r="AB45" s="184"/>
+      <c r="AC45" s="184"/>
       <c r="AD45" s="50"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -14603,7 +15144,7 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="50"/>
@@ -14642,7 +15183,7 @@
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="50"/>
@@ -15124,7 +15665,7 @@
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
       <c r="D61" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -15391,7 +15932,7 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -15468,7 +16009,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -16889,7 +17430,7 @@
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -18032,7 +18573,7 @@
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -18109,7 +18650,7 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -19666,7 +20207,7 @@
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -20305,7 +20846,7 @@
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
       <c r="E197" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
@@ -20866,7 +21407,7 @@
       <c r="C212" s="12"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
@@ -21647,19 +22188,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="S22:AC22"/>
-    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="F44:Q44"/>
+    <mergeCell ref="F45:Q45"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="R40:AC40"/>
+    <mergeCell ref="R41:AC41"/>
+    <mergeCell ref="R42:AC42"/>
+    <mergeCell ref="R43:AC43"/>
+    <mergeCell ref="R44:AC44"/>
+    <mergeCell ref="R45:AC45"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="F40:Q40"/>
+    <mergeCell ref="F41:Q41"/>
+    <mergeCell ref="F42:Q42"/>
+    <mergeCell ref="F43:Q43"/>
     <mergeCell ref="G32:R32"/>
     <mergeCell ref="G33:R33"/>
     <mergeCell ref="S27:AC27"/>
@@ -21674,30 +22226,19 @@
     <mergeCell ref="G29:R29"/>
     <mergeCell ref="G30:R30"/>
     <mergeCell ref="G31:R31"/>
-    <mergeCell ref="F44:Q44"/>
-    <mergeCell ref="F45:Q45"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="R40:AC40"/>
-    <mergeCell ref="R41:AC41"/>
-    <mergeCell ref="R42:AC42"/>
-    <mergeCell ref="R43:AC43"/>
-    <mergeCell ref="R44:AC44"/>
-    <mergeCell ref="R45:AC45"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="F40:Q40"/>
-    <mergeCell ref="F41:Q41"/>
-    <mergeCell ref="F42:Q42"/>
-    <mergeCell ref="F43:Q43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="S22:AC22"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -21719,7 +22260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -21735,163 +22276,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="141" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="116" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -21936,7 +22477,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -22089,7 +22630,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -22129,7 +22670,7 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -22984,7 +23525,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -23513,7 +24054,7 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -24458,7 +24999,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -24499,7 +25040,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="74" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -25814,7 +26355,7 @@
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -25893,36 +26434,36 @@
       <c r="F108" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
-      <c r="S108" s="99"/>
-      <c r="T108" s="99"/>
-      <c r="U108" s="99"/>
-      <c r="V108" s="100"/>
+      <c r="G108" s="136"/>
+      <c r="H108" s="136"/>
+      <c r="I108" s="136"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="136"/>
+      <c r="L108" s="136"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
+      <c r="O108" s="136"/>
+      <c r="P108" s="136"/>
+      <c r="Q108" s="136"/>
+      <c r="R108" s="136"/>
+      <c r="S108" s="136"/>
+      <c r="T108" s="136"/>
+      <c r="U108" s="136"/>
+      <c r="V108" s="137"/>
       <c r="W108" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X108" s="99"/>
-      <c r="Y108" s="99"/>
-      <c r="Z108" s="99"/>
-      <c r="AA108" s="99"/>
-      <c r="AB108" s="99"/>
-      <c r="AC108" s="99"/>
-      <c r="AD108" s="99"/>
-      <c r="AE108" s="99"/>
-      <c r="AF108" s="99"/>
-      <c r="AG108" s="99"/>
-      <c r="AH108" s="100"/>
+      <c r="X108" s="136"/>
+      <c r="Y108" s="136"/>
+      <c r="Z108" s="136"/>
+      <c r="AA108" s="136"/>
+      <c r="AB108" s="136"/>
+      <c r="AC108" s="136"/>
+      <c r="AD108" s="136"/>
+      <c r="AE108" s="136"/>
+      <c r="AF108" s="136"/>
+      <c r="AG108" s="136"/>
+      <c r="AH108" s="137"/>
       <c r="AI108" s="12"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
@@ -26515,36 +27056,36 @@
       <c r="F124" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
-      <c r="L124" s="99"/>
-      <c r="M124" s="99"/>
-      <c r="N124" s="99"/>
-      <c r="O124" s="99"/>
-      <c r="P124" s="99"/>
-      <c r="Q124" s="99"/>
-      <c r="R124" s="99"/>
-      <c r="S124" s="99"/>
-      <c r="T124" s="99"/>
-      <c r="U124" s="99"/>
-      <c r="V124" s="100"/>
+      <c r="G124" s="136"/>
+      <c r="H124" s="136"/>
+      <c r="I124" s="136"/>
+      <c r="J124" s="136"/>
+      <c r="K124" s="136"/>
+      <c r="L124" s="136"/>
+      <c r="M124" s="136"/>
+      <c r="N124" s="136"/>
+      <c r="O124" s="136"/>
+      <c r="P124" s="136"/>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="136"/>
+      <c r="S124" s="136"/>
+      <c r="T124" s="136"/>
+      <c r="U124" s="136"/>
+      <c r="V124" s="137"/>
       <c r="W124" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="X124" s="99"/>
-      <c r="Y124" s="99"/>
-      <c r="Z124" s="99"/>
-      <c r="AA124" s="99"/>
-      <c r="AB124" s="99"/>
-      <c r="AC124" s="99"/>
-      <c r="AD124" s="99"/>
-      <c r="AE124" s="99"/>
-      <c r="AF124" s="99"/>
-      <c r="AG124" s="99"/>
-      <c r="AH124" s="100"/>
+      <c r="X124" s="136"/>
+      <c r="Y124" s="136"/>
+      <c r="Z124" s="136"/>
+      <c r="AA124" s="136"/>
+      <c r="AB124" s="136"/>
+      <c r="AC124" s="136"/>
+      <c r="AD124" s="136"/>
+      <c r="AE124" s="136"/>
+      <c r="AF124" s="136"/>
+      <c r="AG124" s="136"/>
+      <c r="AH124" s="137"/>
       <c r="AI124" s="12"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
@@ -26930,7 +27471,7 @@
       <c r="U134" s="18"/>
       <c r="V134" s="82"/>
       <c r="W134" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="X134" s="18"/>
       <c r="Y134" s="18"/>
@@ -27445,7 +27986,7 @@
       <c r="U147" s="18"/>
       <c r="V147" s="82"/>
       <c r="W147" s="74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X147" s="18"/>
       <c r="Y147" s="18"/>
@@ -32253,7 +32794,7 @@
       <c r="C271" s="12"/>
       <c r="D271" s="12"/>
       <c r="E271" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F271" s="12"/>
       <c r="G271" s="18"/>
@@ -34741,7 +35282,7 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
@@ -35269,20 +35810,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="W198:AH198"/>
-    <mergeCell ref="F49:V49"/>
-    <mergeCell ref="W49:AH49"/>
-    <mergeCell ref="F79:V79"/>
-    <mergeCell ref="W79:AH79"/>
-    <mergeCell ref="F108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="F295:V295"/>
     <mergeCell ref="W295:AH295"/>
     <mergeCell ref="F337:V337"/>
@@ -35299,15 +35835,20 @@
     <mergeCell ref="F166:V166"/>
     <mergeCell ref="W166:AH166"/>
     <mergeCell ref="F198:V198"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="W198:AH198"/>
+    <mergeCell ref="F49:V49"/>
+    <mergeCell ref="W49:AH49"/>
+    <mergeCell ref="F79:V79"/>
+    <mergeCell ref="W79:AH79"/>
+    <mergeCell ref="F108:V108"/>
+    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -35332,7 +35873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -35345,163 +35886,163 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="188" t="str">
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>シェルスクリプト開発標準</v>
       </c>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="160" t="s">
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="177">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
-      <c r="X2" s="192"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="160" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="200"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="179"/>
+      <c r="AC3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="177" t="str">
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -35903,38 +36444,38 @@
       <c r="D11" s="75">
         <v>1</v>
       </c>
-      <c r="E11" s="200" t="s">
+      <c r="E11" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="100"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="192"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="137"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="10"/>
       <c r="AK11" s="10"/>
@@ -35962,39 +36503,39 @@
         <v>2</v>
       </c>
       <c r="E12" s="74"/>
-      <c r="F12" s="197" t="s">
+      <c r="F12" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="197" t="s">
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="188" t="s">
         <v>173</v>
       </c>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="198"/>
-      <c r="AA12" s="198"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="198"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="198"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="199"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="190"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="10"/>
       <c r="AK12" s="10"/>
@@ -36022,39 +36563,39 @@
         <v>3</v>
       </c>
       <c r="E13" s="74"/>
-      <c r="F13" s="197" t="s">
+      <c r="F13" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="199"/>
-      <c r="V13" s="197" t="s">
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="189"/>
+      <c r="Q13" s="189"/>
+      <c r="R13" s="189"/>
+      <c r="S13" s="189"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
-      <c r="Y13" s="198"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="198"/>
-      <c r="AB13" s="198"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="198"/>
-      <c r="AE13" s="198"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="199"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="189"/>
+      <c r="Z13" s="189"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="189"/>
+      <c r="AC13" s="189"/>
+      <c r="AD13" s="189"/>
+      <c r="AE13" s="189"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="190"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="10"/>
       <c r="AK13" s="10"/>
@@ -36082,39 +36623,39 @@
         <v>4</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="197" t="s">
+      <c r="F14" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="199"/>
-      <c r="V14" s="197" t="s">
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="189"/>
+      <c r="R14" s="189"/>
+      <c r="S14" s="189"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="198"/>
-      <c r="X14" s="198"/>
-      <c r="Y14" s="198"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="198"/>
-      <c r="AB14" s="198"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="198"/>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="199"/>
+      <c r="W14" s="189"/>
+      <c r="X14" s="189"/>
+      <c r="Y14" s="189"/>
+      <c r="Z14" s="189"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="189"/>
+      <c r="AC14" s="189"/>
+      <c r="AD14" s="189"/>
+      <c r="AE14" s="189"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="190"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="10"/>
       <c r="AK14" s="10"/>
@@ -36141,40 +36682,40 @@
       <c r="D15" s="75">
         <v>5</v>
       </c>
-      <c r="E15" s="197" t="s">
+      <c r="E15" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="199"/>
-      <c r="V15" s="197" t="s">
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="W15" s="198"/>
-      <c r="X15" s="198"/>
-      <c r="Y15" s="198"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="198"/>
-      <c r="AB15" s="198"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="198"/>
-      <c r="AE15" s="198"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="199"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="190"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
@@ -36254,8 +36795,8 @@
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>365</v>
+      <c r="D17" s="203" t="s">
+        <v>419</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -36311,7 +36852,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -36367,7 +36908,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -36423,7 +36964,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -36479,7 +37020,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -36535,7 +37076,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -36591,7 +37132,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -38534,15 +39075,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="V15:AH15"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="E11:U11"/>
@@ -38555,14 +39095,15 @@
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="V13:AH13"/>
     <mergeCell ref="V14:AH14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
